--- a/backend/output_timetables/sem3_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_timetable.xlsx
@@ -472,19 +472,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>HS201</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>CS251 (Elective)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>EC301</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS251 (Elective)</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>MA262</t>
@@ -492,7 +492,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>HS261 (Elective)</t>
+          <t>EC302</t>
         </is>
       </c>
     </row>
@@ -504,27 +504,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HS201</t>
+          <t>HS261 (Elective)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HS261 (Elective)</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>EC302</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>EC301</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HS201</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>EC301</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,12 +583,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>CS251 (Elective)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>HS201</t>
         </is>
       </c>
     </row>
@@ -600,14 +600,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>CS251 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>EC302 (Tutorial)</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Free</t>
@@ -615,12 +615,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS263 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -632,12 +632,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC302</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC302</t>
+          <t>HS261 (Elective)</t>
         </is>
       </c>
     </row>
@@ -664,27 +664,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>MA261 (Tutorial)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>CS263 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>EC302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>HS261 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>MA261 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CS251 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -742,27 +742,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>CS251 (Elective)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>HS201</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS251 (Elective)</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC302</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>HS261 (Elective)</t>
+          <t>EC301</t>
         </is>
       </c>
     </row>
@@ -774,27 +774,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>HS261 (Elective)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>EC302</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>HS261 (Elective)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>EC301</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EC301</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>HS201</t>
+          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -838,27 +838,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>HS201</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>MA262</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>HS201</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CS251 (Elective)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>EC302</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -870,22 +870,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>CS251 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MA261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CS263 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MA262 (Tutorial)</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC302 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -907,22 +907,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>HS201</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EC302</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>CS263</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>HS201</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS263</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>HS261 (Elective)</t>
         </is>
       </c>
     </row>
@@ -934,27 +934,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC302 (Tutorial)</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS263 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>HS261 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>MA261 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CS251 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3353,12 +3353,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3427,12 +3427,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/backend/output_timetables/sem3_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_timetable.xlsx
@@ -482,17 +482,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS251 (Elective)</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EC302</t>
+          <t>CS263</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>HS201</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,12 +519,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>HS261 (Elective)</t>
         </is>
       </c>
     </row>
@@ -568,22 +568,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>EC302</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>MA262</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>EC302</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HS201</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS251 (Elective)</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS251 (Tutorial)</t>
+          <t>MA261 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,17 +610,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>EC302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>CS263 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -632,27 +632,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS251 (Elective)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS251 (Elective)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>EC302</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>HS261 (Elective)</t>
+          <t>EC301</t>
         </is>
       </c>
     </row>
@@ -664,27 +664,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS263 (Tutorial)</t>
+          <t>HS261 (Tutorial)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>CS251 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>EC302 (Tutorial)</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>HS261 (Tutorial)</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -742,27 +742,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>EC302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HS201</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>CS263</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS251 (Elective)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>EC301</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC302</t>
         </is>
       </c>
     </row>
@@ -779,22 +779,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC302</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC302</t>
+          <t>HS201</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>HS261 (Elective)</t>
         </is>
       </c>
     </row>
@@ -838,27 +838,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HS201</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HS201</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS251 (Elective)</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC302</t>
+          <t>EC301</t>
         </is>
       </c>
     </row>
@@ -870,22 +870,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS251 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>CS263 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>MA261 (Tutorial)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>EC302 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -902,27 +902,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>HS201</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>HS201</t>
+          <t>CS251 (Elective)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC302</t>
+          <t>CS251 (Elective)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>HS261 (Elective)</t>
+          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -934,27 +934,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>HS261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CS251 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>MA262 (Tutorial)</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS263 (Tutorial)</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>HS261 (Tutorial)</t>
+          <t>EC302 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1023,67 +1023,77 @@
           <t>Instructor</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>HSS (Ethics &amp; 2+1)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>0-0-0-0-0</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Electronics Systems</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1102,38 +1112,43 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Somen Bhattacharjee</t>
+          <t>Pankaj</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Operating systems</t>
+          <t>Introduction of Communication</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3-0-0-4-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1143,34 +1158,39 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Suvadip Hazra</t>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Software design</t>
+          <t>Introduction to AI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -1180,105 +1200,120 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Sunil P V, Vivekraj</t>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Design &amp; Analysis of Algorithms</t>
+          <t>Electronic Systems</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Malay, Pramod Y</t>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
+          <t>Data Science with Python</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Prabhu Prasad B M</t>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HSS (Ethics &amp; 2+1)</t>
+          <t>User Interaction</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1293,33 +1328,38 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0-0-0-0-0</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Electronics Systems</t>
+          <t>2D Computer Graphics</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1348,19 +1388,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Pankaj</t>
+          <t>Vivekraj V K</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Introduction of Communication</t>
+          <t>Neuro-Linguistics</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1375,33 +1420,38 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Introduction to AI</t>
+          <t>Leadership I</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1416,33 +1466,38 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Sibasankar Padhy</t>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Electronic Systems</t>
+          <t>Sociology for India</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1457,33 +1512,38 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Mallikarjun Kande</t>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Data Science with Python</t>
+          <t>Social Impact</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1498,33 +1558,38 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Abdul Wahid</t>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>User Interaction</t>
+          <t>Holistic Personality</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1539,33 +1604,38 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Sandesh P</t>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2D Computer Graphics</t>
+          <t>Electronics Systems</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1594,120 +1664,135 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Vivekraj V K</t>
+          <t>Pankaj</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Introduction of Communication</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0-0-0-0-0</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Introduction to AI</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0-0-0-0-0</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Statistical Programming</t>
+          <t>Electronic Systems</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1717,34 +1802,39 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Data Handling</t>
+          <t>Data Science with Python</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1754,33 +1844,38 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Siddharth</t>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>User Interaction</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,19 +1894,24 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Digital Signal Processing</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1821,7 +1921,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Department: ECE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1840,142 +1940,162 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Utkarsh Khaire</t>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>EC302</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Neuro-Linguistics</t>
+          <t>Introduction to VLSI Design</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: ECE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1-0-0-0-1</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
         <v>1</v>
       </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Manjunath K V</t>
+          <t>Jagadish D.N</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Leadership I</t>
+          <t>Introduction to Algorithms</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: ECE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1-0-0-0-1</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
         <v>1</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Jagadeesha R Bhat</t>
+          <t>Jagdish R.B</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>HS201</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sociology for India</t>
+          <t>Happiness &amp; Wellbeing</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: ECE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1-0-0-0-1</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Anushree Kini</t>
+          <t>Chandrika Kamath</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Social Impact</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1990,33 +2110,38 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1-0-0-0-1</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
         <v>1</v>
       </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>Pramod</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Holistic Personality</t>
+          <t>Compiler Design</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2031,33 +2156,38 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1-0-0-0-1</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
         <v>1</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Rajesh N S</t>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Electronics Systems</t>
+          <t>Graphs and Social Network</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2072,33 +2202,38 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Pankaj</t>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC368</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Introduction of Communication</t>
+          <t>Semiconductor Device Modeling</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2113,33 +2248,38 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Introduction to AI</t>
+          <t>Advanced Algorithm Design</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2154,33 +2294,38 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Sibasankar Padhy</t>
+          <t>Suvadip</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Electronic Systems</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2195,33 +2340,38 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Mallikarjun Kande</t>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Data Science with Python</t>
+          <t>Internet of Things</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2236,33 +2386,38 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Abdul Wahid</t>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>User Interaction</t>
+          <t>Cryptography &amp; Information Security</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2291,70 +2446,80 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Sandesh P</t>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>DE351</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Digital Signal Processing</t>
+          <t>User Interactions and Experience Design</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>4</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Sibasankar Padhy</t>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EC302</t>
+          <t>EC358</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Introduction to VLSI Design</t>
+          <t>AI in Biomedical Signal Interpretation</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2373,19 +2538,24 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Jagadish D.N</t>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2395,12 +2565,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Department: ECE</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2410,23 +2580,28 @@
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Jagdish R.B</t>
+          <t>Somen B</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HS201</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Happiness &amp; Wellbeing</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2436,518 +2611,31 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Department: ECE</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="F36" t="n">
         <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Chandrika Kamath</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Parallel computing</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>3</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>4</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Pramod</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Compiler Design</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>3</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" t="n">
-        <v>4</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Pavan Kumar</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Graphs and Social Network</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>3</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Utkarsh K</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>EC368</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Semiconductor Device Modeling</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>3</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>4</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Pankaj Kumar</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Advanced Algorithm Design</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>3</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>4</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Suvadip</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Full Stack Development</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>3</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>4</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Manjunath K V</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Internet of Things</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>3</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>4</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Prakash Pawar</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Cryptography &amp; Information Security</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>3</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>4</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Rajendra Hegadi</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>DE351</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>User Interactions and Experience Design</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>3</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Sandesh P</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>EC358</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>AI in Biomedical Signal Interpretation</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>3</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>4</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Sibasankar Padhy</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Multivariable Calculus</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Core</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Branch: General</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>3-1-0-0-2</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>3</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Somen B</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Differential Equations</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Core</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Branch: General</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>3-1-0-0-2</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
           <t>Anand Barangi</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
@@ -3062,7 +2750,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -3094,7 +2782,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3353,12 +3041,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3395,7 +3083,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3427,12 +3115,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/backend/output_timetables/sem3_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_timetable.xlsx
@@ -472,17 +472,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HS201</t>
+          <t>EC302</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>CS251 (Elective)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -504,7 +504,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HS261 (Elective)</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +514,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC302</t>
+          <t>CS251 (Elective)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -568,27 +568,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>EC302</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CS263</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>HS201</t>
+          <t>EC301</t>
         </is>
       </c>
     </row>
@@ -600,27 +600,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>CS251 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MA262 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>MA261 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>EC302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CS263 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -637,22 +637,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS251 (Elective)</t>
+          <t>EC302</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS251 (Elective)</t>
+          <t>HS201</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC302</t>
+          <t>HS201</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>HS261 (Elective)</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>EC302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>HS261 (Tutorial)</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CS251 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>CS263 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -742,22 +742,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC302</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS251 (Elective)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>HS201</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS263</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -774,22 +774,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HS261 (Elective)</t>
+          <t>EC302</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC302</t>
+          <t>CS251 (Elective)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>HS201</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -838,27 +838,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>HS201</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>CS263</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CS263</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>EC301</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>EC301</t>
         </is>
       </c>
     </row>
@@ -870,17 +870,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS251 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS263 (Tutorial)</t>
+          <t>MA261 (Tutorial)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial)</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -902,27 +902,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>HS201</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS251 (Elective)</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS251 (Elective)</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC302</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>HS261 (Elective)</t>
         </is>
       </c>
     </row>
@@ -934,27 +934,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>CS263 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>EC302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>HS261 (Tutorial)</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CS251 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>MA262 (Tutorial)</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>EC302 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3041,12 +3041,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3078,12 +3078,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3115,12 +3115,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/backend/output_timetables/sem3_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_timetable.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Course_Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Elective_Coordination" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Branch_Info" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,7 +477,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EC302</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -484,12 +487,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>HS201</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS263</t>
         </is>
       </c>
     </row>
@@ -506,7 +509,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>HS201</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -516,12 +519,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -565,17 +568,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>EC302</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>MA262</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>EC301</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CS263</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -602,22 +605,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MA262 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>CS263 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>EC302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>MA262 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -629,27 +632,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CS251 (Elective)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>HS201</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>EC301</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS251 (Elective)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>EC301</t>
         </is>
       </c>
     </row>
@@ -661,27 +664,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>EC302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS251 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>MA261 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS251 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -744,22 +747,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>HS201</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>EC302</t>
         </is>
       </c>
     </row>
@@ -781,17 +784,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>EC302</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS263</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>HS201</t>
+          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -835,14 +838,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>HS201</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>MA262</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>EC301</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>HS201</t>
@@ -855,7 +858,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS263</t>
         </is>
       </c>
     </row>
@@ -872,22 +875,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>MA261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EC302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>MA262 (Tutorial)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>EC302 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -904,12 +907,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>EC302</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -936,22 +939,4011 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>CS263 (Tutorial)</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS251 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Specificity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Credits</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Instructor</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HSS (Ethics &amp; 2+1)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0-0-0-0-0</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Electronics Systems</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Introduction of Communication</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Introduction to AI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Electronic Systems</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS251 (Tutorial)</t>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Vivekraj V K</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Neuro-Linguistics</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Leadership I</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sociology for India</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Social Impact</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Holistic Personality</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Electronics Systems</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Introduction of Communication</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Introduction to AI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Electronic Systems</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Digital Signal Processing</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>EC302</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Introduction to VLSI Design</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Jagadish D.N</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Introduction to Algorithms</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Jagdish R.B</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HS201</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Happiness &amp; Wellbeing</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Chandrika Kamath</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Graphs and Social Network</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Semiconductor Device Modeling</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Advanced Algorithm Design</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Information Security</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>User Interactions and Experience Design</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Signal Interpretation</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Elective Course</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Session Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Branches</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Lecture 1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.5 hours</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lecture 2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.5 hours</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial)</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Lecture 1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.5 hours</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Lecture 2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.5 hours</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Instructor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Digital Signal Processing</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC302</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Introduction to VLSI Design</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Jagadish D.N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Introduction to Algorithms</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Jagdish R.B</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HS201</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Happiness &amp; Wellbeing</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Chandrika Kamath</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>HSS (Ethics &amp; 2+1)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0-0-0-0-0</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Electronics Systems</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Introduction of Communication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Introduction to AI</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Electronic Systems</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Vivekraj V K</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Neuro-Linguistics</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Leadership I</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sociology for India</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Social Impact</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Holistic Personality</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Electronics Systems</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Introduction of Communication</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Introduction to AI</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Electronic Systems</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Graphs and Social Network</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Semiconductor Device Modeling</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Advanced Algorithm Design</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Information Security</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>User Interactions and Experience Design</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>4</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Signal Interpretation</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_timetable.xlsx
@@ -474,22 +474,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>EC302</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>HS201</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>EC301</t>
         </is>
       </c>
     </row>
@@ -506,22 +506,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>HS201</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>EC302</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -565,27 +565,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CS251 (Elective)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>CS263</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>EC301</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>EC301</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CS251 (Elective)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MA261</t>
         </is>
       </c>
     </row>
@@ -602,22 +602,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC302 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC301 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC302</t>
+          <t>HS201</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>HS201</t>
+          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -666,14 +666,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>EC302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CS263 (Tutorial)</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>CS251 (Tutorial)</t>
@@ -681,7 +681,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -744,22 +744,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>HS201</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>EC302</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>EC302</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>EC301</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>EC301</t>
         </is>
       </c>
     </row>
@@ -776,17 +776,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>HS201</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>HS201</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>EC302</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -845,17 +845,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CS251 (Elective)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>EC301</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CS251 (Elective)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>EC302</t>
         </is>
       </c>
     </row>
@@ -872,17 +872,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>CS263 (Tutorial)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MA261 (Tutorial)</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EC302 (Tutorial)</t>
+          <t>EC301 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -899,27 +899,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>HS201</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>EC302</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CS251 (Elective)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>MA261</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>HS201</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS251 (Elective)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>HS201</t>
         </is>
       </c>
     </row>
@@ -931,17 +931,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>EC302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">

--- a/backend/output_timetables/sem3_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_timetable.xlsx
@@ -140,6 +140,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="0045B7D1"/>
+        <bgColor rgb="0045B7D1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="008f84e0"/>
         <bgColor rgb="008f84e0"/>
       </patternFill>
@@ -182,20 +188,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00e0c984"/>
-        <bgColor rgb="00e0c984"/>
+        <fgColor rgb="0096CEB4"/>
+        <bgColor rgb="0096CEB4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0084e0b9"/>
-        <bgColor rgb="0084e0b9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00e084af"/>
-        <bgColor rgb="00e084af"/>
+        <fgColor rgb="00FECA57"/>
+        <bgColor rgb="00FECA57"/>
       </patternFill>
     </fill>
     <fill>
@@ -1367,7 +1367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1381,6 +1381,7 @@
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1414,6 +1415,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -1446,6 +1448,7 @@
           <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -1478,6 +1481,7 @@
           <t>EC263 [C202]</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -1510,6 +1514,7 @@
           <t>CS307 [C202]</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -1542,6 +1547,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -1551,13 +1557,7 @@
       </c>
       <c r="B6" s="16" t="inlineStr">
         <is>
-          <t>EC251 [C202]
-EC252 [C203]
-CS253 [C204]
-EC254 [C205]
-CS152 [C302]
-ASD352 [C303]
-CS251 [C304]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" s="17" t="inlineStr">
@@ -1567,13 +1567,7 @@
       </c>
       <c r="D6" s="16" t="inlineStr">
         <is>
-          <t>EC251 [C202]
-EC252 [C203]
-CS253 [C204]
-EC254 [C205]
-CS152 [C302]
-ASD352 [C303]
-CS251 [C304]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E6" s="12" t="inlineStr">
@@ -1586,6 +1580,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -1600,13 +1595,7 @@
       </c>
       <c r="C7" s="16" t="inlineStr">
         <is>
-          <t>EC251 (Tutorial) [C202]
-EC252 (Tutorial) [C203]
-CS253 (Tutorial) [C204]
-EC254 (Tutorial) [C205]
-CS152 (Tutorial) [C302]
-ASD352 (Tutorial) [C303]
-CS251 (Tutorial) [C304]</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" s="14" t="inlineStr">
@@ -1624,6 +1613,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -1643,7 +1633,7 @@
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L206]</t>
+          <t>EC262 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E8" s="14" t="inlineStr">
@@ -1656,6 +1646,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -1675,7 +1666,7 @@
       </c>
       <c r="D9" s="11" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L206]</t>
+          <t>EC262 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -1688,6 +1679,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -1720,6 +1712,7 @@
           <t>MINOR: Design [C101]</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -1728,6 +1721,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -1736,6 +1730,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="18" t="inlineStr">
@@ -1748,6 +1743,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="19" t="inlineStr">
@@ -1760,6 +1756,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="20" t="inlineStr">
@@ -1782,8 +1779,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="21" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="21" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="22" t="inlineStr">
@@ -1806,8 +1816,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="23" t="inlineStr">
@@ -1830,8 +1853,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="inlineStr">
@@ -1854,8 +1890,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="25" t="inlineStr">
@@ -1878,8 +1927,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="26" t="inlineStr">
@@ -1902,8 +1964,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="27" t="inlineStr">
@@ -1926,8 +2001,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="28" t="inlineStr">
@@ -1950,8 +2038,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E22" s="8" t="n"/>
-      <c r="F22" s="8" t="n"/>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="n"/>
@@ -1960,6 +2061,7 @@
       <c r="D23" s="8" t="n"/>
       <c r="E23" s="8" t="n"/>
       <c r="F23" s="8" t="n"/>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="19" t="inlineStr">
@@ -1972,6 +2074,7 @@
       <c r="D24" s="8" t="n"/>
       <c r="E24" s="8" t="n"/>
       <c r="F24" s="8" t="n"/>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="20" t="inlineStr">
@@ -2004,6 +2107,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -2016,14 +2120,14 @@
           <t>Electronics Systems design-1</t>
         </is>
       </c>
-      <c r="C26" s="16" t="inlineStr">
+      <c r="C26" s="29" t="inlineStr">
         <is>
           <t>EC251</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [L408], Wed 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -2036,6 +2140,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -2048,14 +2153,14 @@
           <t>Introduction of RFIC design</t>
         </is>
       </c>
-      <c r="C27" s="29" t="inlineStr">
+      <c r="C27" s="30" t="inlineStr">
         <is>
           <t>EC252</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 13:00-14:30 [L403], Wed 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -2068,6 +2173,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -2080,14 +2186,14 @@
           <t>Introduction to embedded signals</t>
         </is>
       </c>
-      <c r="C28" s="30" t="inlineStr">
+      <c r="C28" s="31" t="inlineStr">
         <is>
           <t>CS253</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -2100,6 +2206,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -2112,14 +2219,14 @@
           <t>Electronic Systems engineering</t>
         </is>
       </c>
-      <c r="C29" s="31" t="inlineStr">
+      <c r="C29" s="32" t="inlineStr">
         <is>
           <t>EC254</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 13:00-14:30 [L404], Wed 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -2132,6 +2239,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -2144,14 +2252,14 @@
           <t>Data Science with Python</t>
         </is>
       </c>
-      <c r="C30" s="32" t="inlineStr">
+      <c r="C30" s="33" t="inlineStr">
         <is>
           <t>CS152</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C302], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 13:00-14:30 [L405], Wed 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -2164,6 +2272,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -2176,14 +2285,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C31" s="33" t="inlineStr">
+      <c r="C31" s="34" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C303], Wed 13:00-14:30 [C303]</t>
+          <t>Mon 13:00-14:30 [L407], Wed 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -2196,6 +2305,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -2208,14 +2318,14 @@
           <t>2D Computer Graphics</t>
         </is>
       </c>
-      <c r="C32" s="34" t="inlineStr">
+      <c r="C32" s="35" t="inlineStr">
         <is>
           <t>CS251</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C304], Wed 13:00-14:30 [C304]</t>
+          <t>Mon 13:00-14:30 [L406], Wed 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -2228,11 +2338,12 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2245,7 +2356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2258,7 +2369,8 @@
     <col width="29" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2292,6 +2404,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -2324,6 +2437,7 @@
           <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -2356,6 +2470,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -2388,6 +2503,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -2420,6 +2536,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -2432,11 +2549,9 @@
           <t>MA261 [C004]</t>
         </is>
       </c>
-      <c r="C6" s="16" t="inlineStr">
-        <is>
-          <t>EC251 [C202]
-EC252 [C203]
-EC254 [C205]</t>
+      <c r="C6" s="36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
@@ -2444,11 +2559,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" s="16" t="inlineStr">
-        <is>
-          <t>EC251 [C202]
-EC252 [C203]
-EC254 [C205]</t>
+      <c r="E6" s="36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -2456,6 +2569,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -2473,25 +2587,22 @@
           <t>MA261 (Tutorial) [C004]</t>
         </is>
       </c>
-      <c r="D7" s="16" t="inlineStr">
-        <is>
-          <t>EC251 (Tutorial) [C202]
-EC252 (Tutorial) [C203]
-EC254 (Tutorial) [C205]</t>
-        </is>
-      </c>
-      <c r="E7" s="35" t="inlineStr">
-        <is>
-          <t>DE352 (Tutorial) [C202]
-CS162 (Tutorial) [C203]
-CS251 (Tutorial) [C304]</t>
-        </is>
-      </c>
-      <c r="F7" s="36" t="inlineStr">
-        <is>
-          <t>HS301 (Tutorial) [C101]</t>
-        </is>
-      </c>
+      <c r="D7" s="36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E7" s="37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>HSS_B5 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -2499,11 +2610,9 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B8" s="35" t="inlineStr">
-        <is>
-          <t>DE352 [C203]
-CS162 [C204]
-CS251 [C304]</t>
+      <c r="B8" s="37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr">
@@ -2511,16 +2620,14 @@
           <t>MA261 [C004]</t>
         </is>
       </c>
-      <c r="D8" s="35" t="inlineStr">
-        <is>
-          <t>DE352 [C203]
-CS162 [C204]
-CS251 [C304]</t>
+      <c r="D8" s="37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L206]</t>
+          <t>EC262 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -2528,6 +2635,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -2552,7 +2660,7 @@
       </c>
       <c r="E9" s="11" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L206]</t>
+          <t>EC262 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -2560,6 +2668,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -2592,6 +2701,7 @@
           <t>MINOR: Design [C101]</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -2600,6 +2710,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -2608,6 +2719,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="18" t="inlineStr">
@@ -2620,6 +2732,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="19" t="inlineStr">
@@ -2632,6 +2745,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="20" t="inlineStr">
@@ -2654,8 +2768,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="21" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="21" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="22" t="inlineStr">
@@ -2678,8 +2805,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="23" t="inlineStr">
@@ -2702,8 +2842,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="inlineStr">
@@ -2726,8 +2879,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="25" t="inlineStr">
@@ -2750,8 +2916,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="26" t="inlineStr">
@@ -2774,8 +2953,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="27" t="inlineStr">
@@ -2798,8 +2990,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="28" t="inlineStr">
@@ -2822,8 +3027,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E22" s="8" t="n"/>
-      <c r="F22" s="8" t="n"/>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="n"/>
@@ -2832,6 +3050,7 @@
       <c r="D23" s="8" t="n"/>
       <c r="E23" s="8" t="n"/>
       <c r="F23" s="8" t="n"/>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="19" t="inlineStr">
@@ -2844,6 +3063,7 @@
       <c r="D24" s="8" t="n"/>
       <c r="E24" s="8" t="n"/>
       <c r="F24" s="8" t="n"/>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="20" t="inlineStr">
@@ -2876,6 +3096,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -2888,14 +3109,14 @@
           <t>Electronics Systems design-1</t>
         </is>
       </c>
-      <c r="C26" s="16" t="inlineStr">
+      <c r="C26" s="29" t="inlineStr">
         <is>
           <t>EC251</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [L408], Wed 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -2908,6 +3129,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -2920,14 +3142,14 @@
           <t>Introduction of RFIC design</t>
         </is>
       </c>
-      <c r="C27" s="29" t="inlineStr">
+      <c r="C27" s="30" t="inlineStr">
         <is>
           <t>EC252</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 13:00-14:30 [L403], Wed 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -2940,6 +3162,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -2952,14 +3175,14 @@
           <t>Introduction to embedded signals</t>
         </is>
       </c>
-      <c r="C28" s="30" t="inlineStr">
+      <c r="C28" s="31" t="inlineStr">
         <is>
           <t>CS253</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -2972,6 +3195,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -2984,14 +3208,14 @@
           <t>Electronic Systems engineering</t>
         </is>
       </c>
-      <c r="C29" s="31" t="inlineStr">
+      <c r="C29" s="32" t="inlineStr">
         <is>
           <t>EC254</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 13:00-14:30 [L404], Wed 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -3004,6 +3228,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -3016,14 +3241,14 @@
           <t>Data Science with Python</t>
         </is>
       </c>
-      <c r="C30" s="32" t="inlineStr">
+      <c r="C30" s="33" t="inlineStr">
         <is>
           <t>CS152</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C302], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 13:00-14:30 [L405], Wed 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -3036,6 +3261,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -3048,14 +3274,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C31" s="33" t="inlineStr">
+      <c r="C31" s="34" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C303], Wed 13:00-14:30 [C303]</t>
+          <t>Mon 13:00-14:30 [L407], Wed 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -3068,6 +3294,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -3080,14 +3307,14 @@
           <t>2D Computer Graphics</t>
         </is>
       </c>
-      <c r="C32" s="34" t="inlineStr">
+      <c r="C32" s="35" t="inlineStr">
         <is>
           <t>CS251</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C304], Wed 13:00-14:30 [C304]</t>
+          <t>Mon 13:00-14:30 [L406], Wed 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -3100,11 +3327,12 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3117,7 +3345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3130,7 +3358,8 @@
     <col width="29" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3164,6 +3393,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -3196,6 +3426,7 @@
           <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -3228,6 +3459,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -3260,6 +3492,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -3292,6 +3525,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -3304,9 +3538,9 @@
           <t>MA262 [C004]</t>
         </is>
       </c>
-      <c r="C6" s="37" t="inlineStr">
-        <is>
-          <t>EC253 [C204]</t>
+      <c r="C6" s="36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
@@ -3314,9 +3548,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" s="37" t="inlineStr">
-        <is>
-          <t>EC253 [C204]</t>
+      <c r="E6" s="36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -3324,6 +3558,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -3341,21 +3576,22 @@
           <t>MA262 (Tutorial) [C004]</t>
         </is>
       </c>
-      <c r="D7" s="37" t="inlineStr">
-        <is>
-          <t>EC253 (Tutorial) [C204]</t>
-        </is>
-      </c>
-      <c r="E7" s="35" t="inlineStr">
-        <is>
-          <t>DE352 (Tutorial) [C204]</t>
-        </is>
-      </c>
-      <c r="F7" s="36" t="inlineStr">
-        <is>
-          <t>HS301 (Tutorial) [C101]</t>
-        </is>
-      </c>
+      <c r="D7" s="36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E7" s="37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>HSS_B5 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -3363,9 +3599,9 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B8" s="35" t="inlineStr">
-        <is>
-          <t>DE352 [C205]</t>
+      <c r="B8" s="37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
@@ -3373,14 +3609,14 @@
           <t>MA262 [C004]</t>
         </is>
       </c>
-      <c r="D8" s="35" t="inlineStr">
-        <is>
-          <t>DE352 [C205]</t>
+      <c r="D8" s="37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E8" s="12" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L105]</t>
+          <t>EC263 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -3388,6 +3624,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -3412,7 +3649,7 @@
       </c>
       <c r="E9" s="12" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L105]</t>
+          <t>EC263 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -3420,6 +3657,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -3452,6 +3690,7 @@
           <t>MINOR: Design [C101]</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -3460,6 +3699,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -3468,6 +3708,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="18" t="inlineStr">
@@ -3480,6 +3721,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="19" t="inlineStr">
@@ -3492,6 +3734,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="20" t="inlineStr">
@@ -3514,8 +3757,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="21" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="21" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="22" t="inlineStr">
@@ -3538,8 +3794,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="23" t="inlineStr">
@@ -3562,8 +3831,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="inlineStr">
@@ -3586,8 +3868,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="25" t="inlineStr">
@@ -3610,8 +3905,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="26" t="inlineStr">
@@ -3634,8 +3942,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="27" t="inlineStr">
@@ -3658,8 +3979,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="28" t="inlineStr">
@@ -3682,8 +4016,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E22" s="8" t="n"/>
-      <c r="F22" s="8" t="n"/>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="n"/>
@@ -3692,6 +4039,7 @@
       <c r="D23" s="8" t="n"/>
       <c r="E23" s="8" t="n"/>
       <c r="F23" s="8" t="n"/>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="19" t="inlineStr">
@@ -3704,6 +4052,7 @@
       <c r="D24" s="8" t="n"/>
       <c r="E24" s="8" t="n"/>
       <c r="F24" s="8" t="n"/>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="20" t="inlineStr">
@@ -3736,6 +4085,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -3748,14 +4098,14 @@
           <t>Electronics Systems design-1</t>
         </is>
       </c>
-      <c r="C26" s="16" t="inlineStr">
+      <c r="C26" s="29" t="inlineStr">
         <is>
           <t>EC251</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [L408], Wed 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -3768,6 +4118,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -3780,14 +4131,14 @@
           <t>Introduction of RFIC design</t>
         </is>
       </c>
-      <c r="C27" s="29" t="inlineStr">
+      <c r="C27" s="30" t="inlineStr">
         <is>
           <t>EC252</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 13:00-14:30 [L403], Wed 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -3800,6 +4151,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -3812,14 +4164,14 @@
           <t>Introduction to embedded signals</t>
         </is>
       </c>
-      <c r="C28" s="30" t="inlineStr">
+      <c r="C28" s="31" t="inlineStr">
         <is>
           <t>CS253</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -3832,6 +4184,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -3844,14 +4197,14 @@
           <t>Electronic Systems engineering</t>
         </is>
       </c>
-      <c r="C29" s="31" t="inlineStr">
+      <c r="C29" s="32" t="inlineStr">
         <is>
           <t>EC254</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 13:00-14:30 [L404], Wed 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -3864,6 +4217,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -3876,14 +4230,14 @@
           <t>Data Science with Python</t>
         </is>
       </c>
-      <c r="C30" s="32" t="inlineStr">
+      <c r="C30" s="33" t="inlineStr">
         <is>
           <t>CS152</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C302], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 13:00-14:30 [L405], Wed 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -3896,6 +4250,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -3908,14 +4263,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C31" s="33" t="inlineStr">
+      <c r="C31" s="34" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C303], Wed 13:00-14:30 [C303]</t>
+          <t>Mon 13:00-14:30 [L407], Wed 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -3928,6 +4283,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -3940,14 +4296,14 @@
           <t>2D Computer Graphics</t>
         </is>
       </c>
-      <c r="C32" s="34" t="inlineStr">
+      <c r="C32" s="35" t="inlineStr">
         <is>
           <t>CS251</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C304], Wed 13:00-14:30 [C304]</t>
+          <t>Mon 13:00-14:30 [L406], Wed 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -3960,11 +4316,12 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/output_timetables/sem3_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_timetable.xlsx
@@ -1458,27 +1458,27 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>MA261 [C001]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>MA261 [C001]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>EC261 [C202]</t>
+          <t>EC261 [C104]</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>EC262 [C202]</t>
+          <t>EC262 [C304]</t>
         </is>
       </c>
       <c r="F3" s="12" t="inlineStr">
         <is>
-          <t>EC263 [C202]</t>
+          <t>EC263 [C305]</t>
         </is>
       </c>
       <c r="G3" s="8" t="n"/>
@@ -1491,27 +1491,27 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [C001]</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [C001]</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>EC262 [C202]</t>
+          <t>EC262 [C304]</t>
         </is>
       </c>
       <c r="E4" s="12" t="inlineStr">
         <is>
-          <t>EC263 [C202]</t>
+          <t>EC263 [C305]</t>
         </is>
       </c>
       <c r="F4" s="14" t="inlineStr">
         <is>
-          <t>CS307 [C202]</t>
+          <t>CS307 [C302]</t>
         </is>
       </c>
       <c r="G4" s="8" t="n"/>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="C6" s="17" t="inlineStr">
         <is>
-          <t>MA263 [C202]</t>
+          <t>MA263 [C101]</t>
         </is>
       </c>
       <c r="D6" s="16" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="E6" s="12" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L206]</t>
+          <t>EC263 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial) [C004]</t>
+          <t>MA261 (Tutorial) [C001]</t>
         </is>
       </c>
       <c r="C7" s="16" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="E7" s="12" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L206]</t>
+          <t>EC263 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -1623,22 +1623,22 @@
       </c>
       <c r="B8" s="17" t="inlineStr">
         <is>
-          <t>MA263 [C202]</t>
+          <t>MA263 [C101]</t>
         </is>
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>EC261 [C202]</t>
+          <t>EC261 [C204]</t>
         </is>
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L105]</t>
+          <t>EC262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="E8" s="14" t="inlineStr">
         <is>
-          <t>CS307 [C202]</t>
+          <t>CS307 [C302]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial) [C004]</t>
+          <t>MA262 (Tutorial) [C001]</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="D9" s="11" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L105]</t>
+          <t>EC262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -2127,12 +2127,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L408], Wed 13:00-14:30 [L408]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2160,12 +2160,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L403], Wed 13:00-14:30 [L403]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2226,12 +2226,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L404], Wed 13:00-14:30 [L404]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2259,12 +2259,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L405], Wed 13:00-14:30 [L405]</t>
+          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2292,12 +2292,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L407], Wed 13:00-14:30 [L407]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L406], Wed 13:00-14:30 [L406]</t>
+          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -2447,22 +2447,22 @@
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>EC261 [C202]</t>
+          <t>EC261 [C204]</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>EC261 [C202]</t>
+          <t>EC261 [C204]</t>
         </is>
       </c>
       <c r="D3" s="17" t="inlineStr">
         <is>
-          <t>MA263 [C203]</t>
+          <t>MA263 [C101]</t>
         </is>
       </c>
       <c r="E3" s="17" t="inlineStr">
         <is>
-          <t>MA263 [C203]</t>
+          <t>MA263 [C104]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -2480,22 +2480,22 @@
       </c>
       <c r="B4" s="14" t="inlineStr">
         <is>
-          <t>CS307 [C202]</t>
+          <t>CS307 [C302]</t>
         </is>
       </c>
       <c r="C4" s="14" t="inlineStr">
         <is>
-          <t>CS307 [C202]</t>
+          <t>CS307 [C302]</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>EC262 [C203]</t>
+          <t>EC262 [C305]</t>
         </is>
       </c>
       <c r="E4" s="11" t="inlineStr">
         <is>
-          <t>EC262 [C203]</t>
+          <t>EC262 [C102]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -2579,12 +2579,12 @@
       </c>
       <c r="B7" s="10" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C202]</t>
+          <t>EC261 (Tutorial) [C104]</t>
         </is>
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial) [C004]</t>
+          <t>MA261 (Tutorial) [C001]</t>
         </is>
       </c>
       <c r="D7" s="36" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L105]</t>
+          <t>EC262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="E9" s="11" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L105]</t>
+          <t>EC262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -3116,12 +3116,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L408], Wed 13:00-14:30 [L408]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3149,12 +3149,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L403], Wed 13:00-14:30 [L403]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3215,12 +3215,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L404], Wed 13:00-14:30 [L404]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3248,12 +3248,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L405], Wed 13:00-14:30 [L405]</t>
+          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3281,12 +3281,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L407], Wed 13:00-14:30 [L407]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3314,12 +3314,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L406], Wed 13:00-14:30 [L406]</t>
+          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -3436,22 +3436,22 @@
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>EC261 [C101]</t>
+          <t>EC261 [C203]</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>EC261 [C101]</t>
+          <t>EC261 [C203]</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr">
         <is>
-          <t>EC263 [C204]</t>
+          <t>EC263 [C001]</t>
         </is>
       </c>
       <c r="E3" s="12" t="inlineStr">
         <is>
-          <t>EC263 [C204]</t>
+          <t>EC263 [C305]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -3469,12 +3469,12 @@
       </c>
       <c r="B4" s="14" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>CS307 [C205]</t>
         </is>
       </c>
       <c r="C4" s="14" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>CS307 [C203]</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [C001]</t>
         </is>
       </c>
       <c r="C6" s="36" t="inlineStr">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial) [C004]</t>
+          <t>MA262 (Tutorial) [C001]</t>
         </is>
       </c>
       <c r="D7" s="36" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [C001]</t>
         </is>
       </c>
       <c r="D8" s="37" t="inlineStr">
@@ -3634,7 +3634,7 @@
       </c>
       <c r="B9" s="14" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C101]</t>
+          <t>CS307 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -4105,12 +4105,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L408], Wed 13:00-14:30 [L408]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4138,12 +4138,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L403], Wed 13:00-14:30 [L403]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4204,12 +4204,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L404], Wed 13:00-14:30 [L404]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4237,12 +4237,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L405], Wed 13:00-14:30 [L405]</t>
+          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4270,12 +4270,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L407], Wed 13:00-14:30 [L407]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4303,12 +4303,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L406], Wed 13:00-14:30 [L406]</t>
+          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">

--- a/backend/output_timetables/sem3_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_timetable.xlsx
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="E6" s="12" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L207]</t>
+          <t>EC263 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="E7" s="12" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L207]</t>
+          <t>EC263 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L207]</t>
+          <t>EC262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="E8" s="14" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="D9" s="11" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L207]</t>
+          <t>EC262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L207]</t>
+          <t>EC262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="E9" s="11" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L207]</t>
+          <t>EC262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="E8" s="12" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L206]</t>
+          <t>EC263 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -3649,7 +3649,7 @@
       </c>
       <c r="E9" s="12" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L206]</t>
+          <t>EC263 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">

--- a/backend/output_timetables/sem3_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_timetable.xlsx
@@ -771,7 +771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -783,7 +783,8 @@
     <col width="40" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -823,6 +824,11 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
           <t>Display Format</t>
         </is>
       </c>
@@ -850,6 +856,11 @@
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
+          <t>Utkarsh Mahadeo Khaire, Siddharth R, Deepak K T</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
           <t>CS307 (3-0-2-0-4 | Full Sem)</t>
         </is>
       </c>
@@ -877,6 +888,11 @@
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
           <t>EC261 (2-1-0-0-3 | Full Sem)</t>
         </is>
       </c>
@@ -904,6 +920,11 @@
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
           <t>EC262 (3-0-2-0-2 | Pre-Mid Only)</t>
         </is>
       </c>
@@ -931,6 +952,11 @@
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
           <t>EC263 (3-0-2-0-2 | Post-Mid Only)</t>
         </is>
       </c>
@@ -958,6 +984,11 @@
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
           <t>MA261 (2-0-0-0-2 | Pre-Mid Only)</t>
         </is>
       </c>
@@ -985,6 +1016,11 @@
       </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
+          <t>Somen Bhattacharjee</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
           <t>MA262 (2-0-0-0-2 | Post-Mid Only)</t>
         </is>
       </c>
@@ -1012,6 +1048,11 @@
       </c>
       <c r="E11" s="5" t="inlineStr">
         <is>
+          <t>Chinmayananda A</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
           <t>MA263 (2-0-0-0-2 | Pre-Mid Only)</t>
         </is>
       </c>
@@ -1046,6 +1087,11 @@
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
           <t>Display Format</t>
         </is>
       </c>
@@ -1073,6 +1119,11 @@
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
           <t>ASD352 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1100,6 +1151,11 @@
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
           <t>CS152 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1127,6 +1183,11 @@
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
+          <t>Vivekraj V K</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
           <t>CS251 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1154,6 +1215,11 @@
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
           <t>CS253 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1181,6 +1247,11 @@
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
           <t>EC251 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1208,6 +1279,11 @@
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
           <t>EC252 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1235,6 +1311,11 @@
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
           <t>EC254 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1262,6 +1343,11 @@
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
+          <t>Aswath Babu H</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
           <t>HS261 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1289,6 +1375,11 @@
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
           <t>HS361 (1-0-0-0-1)</t>
         </is>
       </c>
@@ -1316,6 +1407,11 @@
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
           <t>HS362 (1-0-0-0-1)</t>
         </is>
       </c>
@@ -1343,6 +1439,11 @@
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
           <t>HS363 (1-0-0-0-1)</t>
         </is>
       </c>
@@ -1370,6 +1471,11 @@
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
           <t>HS364 (1-0-0-0-1)</t>
         </is>
       </c>
@@ -1397,15 +1503,20 @@
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
           <t>HS365 (1-0-0-0-1)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1508,27 +1619,27 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>MA261 [L404]</t>
+          <t>MA261 [C001]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>MA261 [L404]</t>
+          <t>MA261 [C001]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>EC261 [C004]</t>
+          <t>EC261 [C104]</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>EC262 [C001]</t>
+          <t>EC262 [C304]</t>
         </is>
       </c>
       <c r="F3" s="12" t="inlineStr">
         <is>
-          <t>EC263 [C104]</t>
+          <t>EC263 [C305]</t>
         </is>
       </c>
       <c r="G3" s="8" t="n"/>
@@ -1541,22 +1652,22 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [C001]</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [C001]</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>EC262 [C303]</t>
+          <t>EC262 [C304]</t>
         </is>
       </c>
       <c r="E4" s="12" t="inlineStr">
         <is>
-          <t>EC263 [C104]</t>
+          <t>EC263 [C305]</t>
         </is>
       </c>
       <c r="F4" s="14" t="inlineStr">
@@ -1612,7 +1723,7 @@
       </c>
       <c r="C6" s="17" t="inlineStr">
         <is>
-          <t>MA263 [L405]</t>
+          <t>MA263 [C101]</t>
         </is>
       </c>
       <c r="D6" s="16" t="inlineStr">
@@ -1622,7 +1733,7 @@
       </c>
       <c r="E6" s="12" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L107]</t>
+          <t>EC263 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -1640,7 +1751,7 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial) [L404]</t>
+          <t>MA261 (Tutorial) [C001]</t>
         </is>
       </c>
       <c r="C7" s="16" t="inlineStr">
@@ -1650,12 +1761,12 @@
       </c>
       <c r="D7" s="14" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C101]</t>
+          <t>CS307 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="E7" s="12" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L107]</t>
+          <t>EC263 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -1673,7 +1784,7 @@
       </c>
       <c r="B8" s="17" t="inlineStr">
         <is>
-          <t>MA263 [L402]</t>
+          <t>MA263 [C101]</t>
         </is>
       </c>
       <c r="C8" s="10" t="inlineStr">
@@ -1683,7 +1794,7 @@
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L107]</t>
+          <t>EC262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="E8" s="14" t="inlineStr">
@@ -1706,7 +1817,7 @@
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial) [C004]</t>
+          <t>MA262 (Tutorial) [C001]</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr">
@@ -1716,7 +1827,7 @@
       </c>
       <c r="D9" s="11" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L107]</t>
+          <t>EC262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -2497,22 +2608,22 @@
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>EC261 [L405]</t>
+          <t>EC261 [C204]</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>EC261 [L406]</t>
+          <t>EC261 [C204]</t>
         </is>
       </c>
       <c r="D3" s="17" t="inlineStr">
         <is>
-          <t>MA263 [C004]</t>
+          <t>MA263 [C101]</t>
         </is>
       </c>
       <c r="E3" s="17" t="inlineStr">
         <is>
-          <t>MA263 [L402]</t>
+          <t>MA263 [C104]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -2530,22 +2641,22 @@
       </c>
       <c r="B4" s="14" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>CS307 [C302]</t>
         </is>
       </c>
       <c r="C4" s="14" t="inlineStr">
         <is>
-          <t>CS307 [C305]</t>
+          <t>CS307 [C302]</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>EC262 [C304]</t>
+          <t>EC262 [C305]</t>
         </is>
       </c>
       <c r="E4" s="11" t="inlineStr">
         <is>
-          <t>EC262 [C101]</t>
+          <t>EC262 [C102]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -2596,7 +2707,7 @@
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>MA261 [L404]</t>
+          <t>MA261 [C004]</t>
         </is>
       </c>
       <c r="C6" s="36" t="inlineStr">
@@ -2629,12 +2740,12 @@
       </c>
       <c r="B7" s="10" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C001]</t>
+          <t>EC261 (Tutorial) [C104]</t>
         </is>
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial) [L404]</t>
+          <t>MA261 (Tutorial) [C001]</t>
         </is>
       </c>
       <c r="D7" s="36" t="inlineStr">
@@ -2667,7 +2778,7 @@
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>MA261 [L404]</t>
+          <t>MA261 [C004]</t>
         </is>
       </c>
       <c r="D8" s="37" t="inlineStr">
@@ -2677,7 +2788,7 @@
       </c>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L107]</t>
+          <t>EC262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -2695,7 +2806,7 @@
       </c>
       <c r="B9" s="14" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C101]</t>
+          <t>CS307 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -2710,7 +2821,7 @@
       </c>
       <c r="E9" s="11" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L107]</t>
+          <t>EC262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -3486,22 +3597,22 @@
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>EC261 [L406]</t>
+          <t>EC261 [C203]</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>EC261 [L407]</t>
+          <t>EC261 [C203]</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr">
         <is>
-          <t>EC263 [C004]</t>
+          <t>EC263 [C001]</t>
         </is>
       </c>
       <c r="E3" s="12" t="inlineStr">
         <is>
-          <t>EC263 [C003]</t>
+          <t>EC263 [C305]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -3519,12 +3630,12 @@
       </c>
       <c r="B4" s="14" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>CS307 [C205]</t>
         </is>
       </c>
       <c r="C4" s="14" t="inlineStr">
         <is>
-          <t>CS307 [L402]</t>
+          <t>CS307 [C203]</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -3585,7 +3696,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [C001]</t>
         </is>
       </c>
       <c r="C6" s="36" t="inlineStr">
@@ -3618,12 +3729,12 @@
       </c>
       <c r="B7" s="10" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C002]</t>
+          <t>EC261 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial) [C004]</t>
+          <t>MA262 (Tutorial) [C001]</t>
         </is>
       </c>
       <c r="D7" s="36" t="inlineStr">
@@ -3656,7 +3767,7 @@
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [C001]</t>
         </is>
       </c>
       <c r="D8" s="37" t="inlineStr">
@@ -3666,7 +3777,7 @@
       </c>
       <c r="E8" s="12" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L206]</t>
+          <t>EC263 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -3684,7 +3795,7 @@
       </c>
       <c r="B9" s="14" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C102]</t>
+          <t>CS307 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -3699,7 +3810,7 @@
       </c>
       <c r="E9" s="12" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L206]</t>
+          <t>EC263 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -4464,22 +4575,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC261 [C004]</t>
+          <t>EC261 [L405]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC261 [C004]</t>
+          <t>EC261 [L403]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC263 [C004]</t>
+          <t>EC263 [L408]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC263 [C003]</t>
+          <t>EC263 [C001]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -4501,7 +4612,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS307 [L407]</t>
+          <t>CS307 [L403]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4560,7 +4671,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MA262 [L405]</t>
+          <t>MA262 [C303]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4592,12 +4703,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C002]</t>
+          <t>EC261 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial) [C004]</t>
+          <t>MA262 (Tutorial) [L407]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -4629,7 +4740,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MA262 [L405]</t>
+          <t>MA262 [C303]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4639,7 +4750,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L206]</t>
+          <t>EC263 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4656,7 +4767,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C102]</t>
+          <t>CS307 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4671,7 +4782,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L206]</t>
+          <t>EC263 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -5374,10 +5485,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5404,10 +5515,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5438,10 +5549,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -5472,10 +5583,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>13.8</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5506,10 +5617,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>25.5</v>
+        <v>27</v>
       </c>
       <c r="E6" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5540,10 +5651,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5676,10 +5787,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -5812,10 +5923,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5914,10 +6025,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -6016,10 +6127,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -6118,10 +6229,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="E24" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6370,10 +6481,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -6438,10 +6549,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -6540,10 +6651,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -6761,21 +6872,21 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -6785,7 +6896,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -6799,7 +6910,7 @@
         </is>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -6910,7 +7021,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -6929,7 +7040,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -6977,12 +7088,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -7001,7 +7112,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -7059,7 +7170,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -7073,7 +7184,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -7905,21 +8016,21 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -7929,7 +8040,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -7943,7 +8054,7 @@
         </is>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -8001,7 +8112,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -8049,17 +8160,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -8073,7 +8184,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -8126,7 +8237,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -8145,7 +8256,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -8977,21 +9088,21 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -9001,7 +9112,7 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -9015,7 +9126,7 @@
         </is>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -9838,14 +9949,10 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="b">
         <v>0</v>
       </c>
@@ -9857,7 +9964,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -9905,7 +10012,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -9915,7 +10022,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -9929,7 +10036,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -9977,7 +10084,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -9987,7 +10094,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -10001,7 +10108,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -12082,7 +12189,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -12101,7 +12208,7 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -12218,12 +12325,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J79" t="b">
@@ -12237,7 +12344,7 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -12949,21 +13056,21 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -12973,7 +13080,7 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -12983,7 +13090,7 @@
       </c>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -13559,7 +13666,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J97" t="b">
@@ -13573,7 +13680,7 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -13641,7 +13748,7 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -13709,7 +13816,7 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -13821,12 +13928,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -13845,7 +13952,7 @@
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -14103,7 +14210,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J105" t="b">
@@ -14117,7 +14224,7 @@
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">

--- a/backend/output_timetables/sem3_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_timetable.xlsx
@@ -317,10 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -329,7 +326,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -341,7 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -856,7 +856,7 @@
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
-          <t>Utkarsh Mahadeo Khaire, Siddharth R, Deepak K T</t>
+          <t>Utkarsh K, Siddharth, Deepak K T</t>
         </is>
       </c>
       <c r="F5" s="5" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Somen Bhattacharjee</t>
         </is>
       </c>
       <c r="F6" s="5" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>Vivekraj V K</t>
+          <t>Vivekraj</t>
         </is>
       </c>
       <c r="F17" s="5" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>Pankaj</t>
+          <t>Pankaj Kumar</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>Aswath Babu H</t>
+          <t>Aswath Babu</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>Anushree Kini</t>
+          <t>Anushree</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
@@ -1586,27 +1586,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -1619,27 +1619,27 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="C3" s="10" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="E3" s="12" t="inlineStr">
+        <is>
           <t>MA261 [C001]</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>MA261 [C001]</t>
-        </is>
-      </c>
-      <c r="D3" s="10" t="inlineStr">
-        <is>
-          <t>EC261 [C104]</t>
-        </is>
-      </c>
-      <c r="E3" s="11" t="inlineStr">
-        <is>
-          <t>EC262 [C304]</t>
-        </is>
-      </c>
-      <c r="F3" s="12" t="inlineStr">
-        <is>
-          <t>EC263 [C305]</t>
+      <c r="F3" s="13" t="inlineStr">
+        <is>
+          <t>EC261 [C304]</t>
         </is>
       </c>
       <c r="G3" s="8" t="n"/>
@@ -1650,29 +1650,29 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="13" t="inlineStr">
-        <is>
-          <t>MA262 [C001]</t>
-        </is>
-      </c>
-      <c r="C4" s="13" t="inlineStr">
-        <is>
-          <t>MA262 [C001]</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr">
-        <is>
-          <t>EC262 [C304]</t>
-        </is>
-      </c>
-      <c r="E4" s="12" t="inlineStr">
-        <is>
-          <t>EC263 [C305]</t>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr">
+        <is>
+          <t>MA261 [C001]</t>
+        </is>
+      </c>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" s="14" t="inlineStr">
         <is>
-          <t>CS307 [C302]</t>
+          <t>CS307 [C102]</t>
         </is>
       </c>
       <c r="G4" s="8" t="n"/>
@@ -1721,9 +1721,9 @@
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="C6" s="17" t="inlineStr">
-        <is>
-          <t>MA263 [C101]</t>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>EC263 [L402]</t>
         </is>
       </c>
       <c r="D6" s="16" t="inlineStr">
@@ -1731,14 +1731,14 @@
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="E6" s="12" t="inlineStr">
-        <is>
-          <t>EC263 (Lab) [L106]</t>
-        </is>
-      </c>
-      <c r="F6" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="E6" s="13" t="inlineStr">
+        <is>
+          <t>EC261 [C102]</t>
+        </is>
+      </c>
+      <c r="F6" s="11" t="inlineStr">
+        <is>
+          <t>EC263 (Lab) [L206]</t>
         </is>
       </c>
       <c r="G6" s="8" t="n"/>
@@ -1749,7 +1749,7 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B7" s="9" t="inlineStr">
+      <c r="B7" s="12" t="inlineStr">
         <is>
           <t>MA261 (Tutorial) [C001]</t>
         </is>
@@ -1761,17 +1761,17 @@
       </c>
       <c r="D7" s="14" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C202]</t>
-        </is>
-      </c>
-      <c r="E7" s="12" t="inlineStr">
-        <is>
-          <t>EC263 (Lab) [L106]</t>
-        </is>
-      </c>
-      <c r="F7" s="8" t="inlineStr">
+          <t>CS307 (Tutorial) [C104]</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" s="11" t="inlineStr">
+        <is>
+          <t>EC263 (Lab) [L206]</t>
         </is>
       </c>
       <c r="G7" s="8" t="n"/>
@@ -1784,22 +1784,22 @@
       </c>
       <c r="B8" s="17" t="inlineStr">
         <is>
-          <t>MA263 [C101]</t>
-        </is>
-      </c>
-      <c r="C8" s="10" t="inlineStr">
-        <is>
-          <t>EC261 [C204]</t>
-        </is>
-      </c>
-      <c r="D8" s="11" t="inlineStr">
-        <is>
-          <t>EC262 (Lab) [L207]</t>
-        </is>
-      </c>
-      <c r="E8" s="14" t="inlineStr">
-        <is>
-          <t>CS307 [C302]</t>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="C8" s="14" t="inlineStr">
+        <is>
+          <t>CS307 [C204]</t>
+        </is>
+      </c>
+      <c r="D8" s="17" t="inlineStr">
+        <is>
+          <t>MA262 [C004]</t>
+        </is>
+      </c>
+      <c r="E8" s="10" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -1815,24 +1815,24 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B9" s="13" t="inlineStr">
-        <is>
-          <t>MA262 (Tutorial) [C001]</t>
-        </is>
-      </c>
-      <c r="C9" s="10" t="inlineStr">
-        <is>
-          <t>EC261 (Tutorial) [C202]</t>
-        </is>
-      </c>
-      <c r="D9" s="11" t="inlineStr">
-        <is>
-          <t>EC262 (Lab) [L207]</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
+      <c r="B9" s="17" t="inlineStr">
+        <is>
+          <t>MA262 (Tutorial) [C004]</t>
+        </is>
+      </c>
+      <c r="C9" s="13" t="inlineStr">
+        <is>
+          <t>EC261 (Tutorial) [C101]</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>EC262 (Lab) [C004]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -1850,27 +1850,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -2575,27 +2575,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -2606,29 +2606,29 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>EC261 [C204]</t>
-        </is>
-      </c>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t>EC261 [C204]</t>
-        </is>
-      </c>
-      <c r="D3" s="17" t="inlineStr">
-        <is>
-          <t>MA263 [C101]</t>
-        </is>
-      </c>
-      <c r="E3" s="17" t="inlineStr">
-        <is>
-          <t>MA263 [C104]</t>
-        </is>
-      </c>
-      <c r="F3" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="B3" s="14" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="C3" s="14" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="inlineStr">
+        <is>
+          <t>MA261 [C001]</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>MA263 [L405]</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>MA263 [L405]</t>
         </is>
       </c>
       <c r="G3" s="8" t="n"/>
@@ -2639,24 +2639,24 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
-        <is>
-          <t>CS307 [C302]</t>
-        </is>
-      </c>
-      <c r="C4" s="14" t="inlineStr">
-        <is>
-          <t>CS307 [C302]</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr">
-        <is>
-          <t>EC262 [C305]</t>
-        </is>
-      </c>
-      <c r="E4" s="11" t="inlineStr">
-        <is>
-          <t>EC262 [C102]</t>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="D4" s="10" t="inlineStr">
+        <is>
+          <t>EC262 [L406]</t>
+        </is>
+      </c>
+      <c r="E4" s="12" t="inlineStr">
+        <is>
+          <t>MA261 [C001]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -2705,9 +2705,9 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="9" t="inlineStr">
-        <is>
-          <t>MA261 [C004]</t>
+      <c r="B6" s="13" t="inlineStr">
+        <is>
+          <t>EC261 [C302]</t>
         </is>
       </c>
       <c r="C6" s="36" t="inlineStr">
@@ -2738,12 +2738,12 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B7" s="10" t="inlineStr">
-        <is>
-          <t>EC261 (Tutorial) [C104]</t>
-        </is>
-      </c>
-      <c r="C7" s="9" t="inlineStr">
+      <c r="B7" s="14" t="inlineStr">
+        <is>
+          <t>CS307 (Tutorial) [C102]</t>
+        </is>
+      </c>
+      <c r="C7" s="12" t="inlineStr">
         <is>
           <t>MA261 (Tutorial) [C001]</t>
         </is>
@@ -2776,9 +2776,9 @@
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="C8" s="9" t="inlineStr">
-        <is>
-          <t>MA261 [C004]</t>
+      <c r="C8" s="13" t="inlineStr">
+        <is>
+          <t>EC261 [C205]</t>
         </is>
       </c>
       <c r="D8" s="37" t="inlineStr">
@@ -2786,14 +2786,14 @@
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="E8" s="11" t="inlineStr">
-        <is>
-          <t>EC262 (Lab) [L207]</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="E8" s="8" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" s="10" t="inlineStr">
+        <is>
+          <t>EC262 (Lab) [C004]</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -2804,9 +2804,9 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B9" s="14" t="inlineStr">
-        <is>
-          <t>CS307 (Tutorial) [C202]</t>
+      <c r="B9" s="13" t="inlineStr">
+        <is>
+          <t>EC261 (Tutorial) [C102]</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -2819,14 +2819,14 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E9" s="11" t="inlineStr">
-        <is>
-          <t>EC262 (Lab) [L207]</t>
-        </is>
-      </c>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>EC262 (Lab) [C004]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -2839,27 +2839,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -3564,27 +3564,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -3595,24 +3595,24 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>EC261 [C203]</t>
-        </is>
-      </c>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t>EC261 [C203]</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr">
-        <is>
-          <t>EC263 [C001]</t>
-        </is>
-      </c>
-      <c r="E3" s="12" t="inlineStr">
-        <is>
-          <t>EC263 [C305]</t>
+      <c r="B3" s="14" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="C3" s="14" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -3628,19 +3628,19 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
-        <is>
-          <t>CS307 [C205]</t>
-        </is>
-      </c>
-      <c r="C4" s="14" t="inlineStr">
-        <is>
-          <t>CS307 [C203]</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="D4" s="17" t="inlineStr">
+        <is>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>MA262 [C001]</t>
+          <t>EC261 [C303]</t>
         </is>
       </c>
       <c r="C6" s="36" t="inlineStr">
@@ -3704,9 +3704,9 @@
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="D6" s="13" t="inlineStr">
+        <is>
+          <t>EC261 [C303]</t>
         </is>
       </c>
       <c r="E6" s="36" t="inlineStr">
@@ -3727,14 +3727,14 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B7" s="10" t="inlineStr">
-        <is>
-          <t>EC261 (Tutorial) [C101]</t>
-        </is>
-      </c>
-      <c r="C7" s="13" t="inlineStr">
-        <is>
-          <t>MA262 (Tutorial) [C001]</t>
+      <c r="B7" s="14" t="inlineStr">
+        <is>
+          <t>CS307 (Tutorial) [C203]</t>
+        </is>
+      </c>
+      <c r="C7" s="17" t="inlineStr">
+        <is>
+          <t>MA262 (Tutorial) [C004]</t>
         </is>
       </c>
       <c r="D7" s="36" t="inlineStr">
@@ -3765,9 +3765,9 @@
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="C8" s="13" t="inlineStr">
-        <is>
-          <t>MA262 [C001]</t>
+      <c r="C8" s="17" t="inlineStr">
+        <is>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="D8" s="37" t="inlineStr">
@@ -3775,9 +3775,9 @@
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="E8" s="12" t="inlineStr">
-        <is>
-          <t>EC263 (Lab) [L106]</t>
+      <c r="E8" s="11" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -3793,9 +3793,9 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B9" s="14" t="inlineStr">
-        <is>
-          <t>CS307 (Tutorial) [C203]</t>
+      <c r="B9" s="13" t="inlineStr">
+        <is>
+          <t>EC261 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -3808,9 +3808,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E9" s="12" t="inlineStr">
-        <is>
-          <t>EC263 (Lab) [L106]</t>
+      <c r="E9" s="11" t="inlineStr">
+        <is>
+          <t>EC263 (Lab) [C003]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -3828,27 +3828,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -4543,27 +4543,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
@@ -4575,22 +4575,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC261 [L405]</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC261 [L403]</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC263 [L408]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC263 [C001]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -4607,17 +4607,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS307 [L403]</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262 [L407]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MA262 [C303]</t>
+          <t>EC261 [C305]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC261 [C305]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -4703,12 +4703,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C101]</t>
+          <t>CS307 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial) [L407]</t>
+          <t>MA262 (Tutorial) [C004]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MA262 [C303]</t>
+          <t>MA262 [L407]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L106]</t>
+          <t>EC263 (Lab) [C003]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C203]</t>
+          <t>EC261 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L106]</t>
+          <t>EC263 (Lab) [C003]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -4799,27 +4799,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -4879,27 +4879,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [C004]</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C004]</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [C004]</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [C004]</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [C004]</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
     </row>
@@ -4911,27 +4911,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Machine Learning [C303]</t>
+          <t>Machine Learning [C102]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C303]</t>
+          <t>3-0-2-0-4 [C102]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C303]</t>
+          <t>Full Sem [C102]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C303]</t>
+          <t>3/3 [C102]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1/0 [C303]</t>
+          <t>1/0 [C104]</t>
         </is>
       </c>
     </row>
@@ -4943,12 +4943,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Signals &amp; Systems [C204]</t>
+          <t>Signals &amp; Systems [C203]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2-1-0-0-3 [C204]</t>
+          <t>2-1-0-0-3 [C203]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1/1 [C204]</t>
+          <t>1/1 [C203]</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Semiconductor Devices [C204]</t>
+          <t>Semiconductor Devices [C203]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Analog Electronics [C204]</t>
+          <t>Analog Electronics [C203]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5039,12 +5039,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Differential Equations [C001]</t>
+          <t>Differential Equations [C101]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C001]</t>
+          <t>2-0-0-0-2 [C101]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -5071,12 +5071,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Multivariable Calculus [C001]</t>
+          <t>Multivariable Calculus [C101]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C001]</t>
+          <t>2-0-0-0-2 [C101]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Random Processes [C204]</t>
+          <t>Random Processes [C203]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C204]</t>
+          <t>2-0-0-0-2 [C203]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -5159,27 +5159,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Course [C004]</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Course Code [C004]</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [C004]</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [C004]</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C004]</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
     </row>
@@ -5191,27 +5191,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [C004]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EC251 [C004]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C004]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C004]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5223,27 +5223,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [C004]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EC251 [C004]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C004]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C004]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5255,27 +5255,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [C004]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EC251 [C004]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C004]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C004]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5287,27 +5287,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [C004]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EC251 [C004]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C004]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C004]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5319,27 +5319,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [C004]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EC251 [C004]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C004]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C004]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5351,27 +5351,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [C004]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>EC251 [C004]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C004]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C004]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5383,27 +5383,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [C004]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EC251 [C004]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C004]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C004]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5485,10 +5485,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5549,10 +5549,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -5583,10 +5583,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>69</v>
+        <v>1.5</v>
       </c>
       <c r="E5" t="n">
-        <v>13.8</v>
+        <v>0.3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5617,10 +5617,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>27</v>
+        <v>16.5</v>
       </c>
       <c r="E6" t="n">
-        <v>5.4</v>
+        <v>3.3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5651,10 +5651,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5787,10 +5787,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.5</v>
+        <v>13.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5957,10 +5957,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>30</v>
+        <v>19.5</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -6127,10 +6127,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.5</v>
+        <v>13.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -6229,10 +6229,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6297,10 +6297,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6481,10 +6481,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -6549,10 +6549,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -6617,10 +6617,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -6651,10 +6651,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -6679,7 +6679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P107"/>
+  <dimension ref="A1:P90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6824,7 +6824,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -6862,7 +6862,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -6877,7 +6877,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -6896,7 +6896,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -6934,31 +6934,31 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -6968,21 +6968,21 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -7006,12 +7006,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -7040,17 +7040,17 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P5" t="b">
@@ -7078,12 +7078,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -7112,17 +7112,17 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P6" t="b">
@@ -7150,12 +7150,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -7170,7 +7170,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -7184,17 +7184,17 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P7" t="b">
@@ -7222,12 +7222,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>Signals &amp; Systems</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -7242,7 +7242,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -7256,12 +7256,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>Signals &amp; Systems</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -7294,31 +7294,31 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Semiconductor Devices</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -7328,12 +7328,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Semiconductor Devices</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -7366,12 +7366,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Analog Electronics</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -7400,12 +7400,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Analog Electronics</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -7438,12 +7438,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Signals &amp; Systems</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -7472,12 +7472,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Signals &amp; Systems</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -7510,12 +7510,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Semiconductor Devices</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -7530,7 +7530,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -7544,12 +7544,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Semiconductor Devices</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -7582,12 +7582,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Analog Electronics</t>
+          <t>Random Processes</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -7616,12 +7616,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Analog Electronics</t>
+          <t>Random Processes</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -7649,30 +7649,34 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
@@ -7684,12 +7688,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7717,30 +7721,34 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
@@ -7752,17 +7760,17 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P15" t="b">
@@ -7785,17 +7793,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Random Processes</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -7805,7 +7813,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -7824,12 +7832,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Random Processes</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -7857,36 +7865,36 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -7896,12 +7904,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -7910,7 +7918,7 @@
         </is>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -7934,12 +7942,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -7968,12 +7976,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -8006,12 +8014,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>2-1-0-0-3</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -8021,7 +8029,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -8040,12 +8048,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>2-1-0-0-3</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -8078,12 +8086,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -8093,7 +8101,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -8112,12 +8120,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -8150,12 +8158,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -8165,7 +8173,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -8184,17 +8192,17 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P21" t="b">
@@ -8222,12 +8230,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -8242,7 +8250,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -8256,12 +8264,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -8294,12 +8302,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -8333,7 +8341,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -8366,31 +8374,31 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -8400,12 +8408,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -8414,7 +8422,7 @@
         </is>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -8433,17 +8441,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8458,7 +8466,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -8472,12 +8480,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -8505,17 +8513,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2-1-0-0-3</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -8525,7 +8533,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -8544,12 +8552,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2-1-0-0-3</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -8577,17 +8585,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -8616,12 +8624,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -8649,17 +8657,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -8674,7 +8682,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -8688,12 +8696,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -8721,30 +8729,34 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
@@ -8756,12 +8768,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -8789,30 +8801,34 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
@@ -8824,12 +8840,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -8857,17 +8873,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -8901,7 +8917,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -8929,36 +8945,36 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -8968,12 +8984,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -8982,7 +8998,7 @@
         </is>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -9006,29 +9022,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="b">
         <v>0</v>
       </c>
@@ -9040,12 +9052,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -9078,29 +9090,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="b">
         <v>0</v>
       </c>
@@ -9112,12 +9120,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -9150,12 +9158,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -9170,7 +9178,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -9184,12 +9192,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -9217,36 +9225,36 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -9256,12 +9264,12 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -9270,7 +9278,7 @@
         </is>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -9289,32 +9297,32 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -9328,17 +9336,17 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P37" t="b">
@@ -9361,32 +9369,32 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -9400,17 +9408,17 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P38" t="b">
@@ -9433,17 +9441,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9458,7 +9466,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -9472,12 +9480,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9505,17 +9513,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -9530,7 +9538,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -9544,12 +9552,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9577,30 +9585,34 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
@@ -9612,12 +9624,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9645,30 +9657,34 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
@@ -9680,12 +9696,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -9713,17 +9729,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -9757,7 +9773,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -9785,36 +9801,32 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -9824,12 +9836,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -9838,7 +9850,7 @@
         </is>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -9862,29 +9874,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="b">
         <v>0</v>
       </c>
@@ -9896,12 +9904,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -9934,25 +9942,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
@@ -9964,12 +9976,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -9997,32 +10009,32 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -10036,17 +10048,17 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P47" t="b">
@@ -10069,32 +10081,32 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -10108,17 +10120,17 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P48" t="b">
@@ -10141,17 +10153,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>1/0</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -10180,12 +10192,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>1/0</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -10213,36 +10225,36 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -10252,12 +10264,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -10266,7 +10278,7 @@
         </is>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -10285,17 +10297,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -10324,12 +10336,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -10357,17 +10369,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -10401,7 +10413,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -10429,34 +10441,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>1/0</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="b">
         <v>0</v>
       </c>
@@ -10468,12 +10476,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>1/0</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -10501,34 +10509,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>1/0</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="b">
         <v>0</v>
       </c>
@@ -10540,12 +10544,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>1/0</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -10573,30 +10577,34 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J55" t="b">
         <v>0</v>
       </c>
@@ -10608,12 +10616,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -10641,47 +10649,55 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -10709,17 +10725,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -10734,7 +10750,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -10742,18 +10758,22 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -10781,51 +10801,55 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -10834,7 +10858,7 @@
         </is>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -10853,17 +10877,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -10878,7 +10902,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -10886,18 +10910,22 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -10925,17 +10953,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10950,7 +10978,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -10958,18 +10986,22 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -10997,51 +11029,55 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -11050,7 +11086,7 @@
         </is>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -11069,17 +11105,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1/0</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -11102,10 +11138,14 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr">
         <is>
           <t>C303</t>
@@ -11113,7 +11153,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>1/0</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -11141,17 +11181,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -11161,7 +11201,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -11174,25 +11214,21 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>1/1</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="b">
         <v>0</v>
       </c>
@@ -11213,17 +11249,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -11233,7 +11269,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -11246,25 +11282,21 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="b">
         <v>0</v>
       </c>
@@ -11285,17 +11317,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -11310,7 +11342,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -11318,23 +11350,27 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P65" t="b">
@@ -11357,52 +11393,60 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1/0</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J66" t="b">
         <v>0</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>1/0</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P66" t="b">
@@ -11425,52 +11469,60 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1/0</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J67" t="b">
         <v>0</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>1/0</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P67" t="b">
@@ -11493,17 +11545,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -11518,7 +11570,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -11526,23 +11578,27 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P68" t="b">
@@ -11565,60 +11621,64 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -11637,17 +11697,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -11662,7 +11722,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -11680,17 +11740,17 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P70" t="b">
@@ -11713,17 +11773,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -11738,7 +11798,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -11756,17 +11816,17 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P71" t="b">
@@ -11789,17 +11849,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -11825,26 +11885,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
       <c r="P72" t="b">
         <v>0</v>
       </c>
@@ -11865,7 +11917,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -11875,7 +11927,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -11913,7 +11965,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -11941,7 +11993,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -11951,7 +12003,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -11989,7 +12041,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -12017,7 +12069,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -12027,7 +12079,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -12065,7 +12117,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -12093,7 +12145,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -12103,7 +12155,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -12141,7 +12193,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -12169,17 +12221,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -12194,7 +12246,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -12205,18 +12257,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>MA263</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr"/>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P77" t="b">
         <v>0</v>
       </c>
@@ -12237,56 +12297,64 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -12305,7 +12373,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -12315,7 +12383,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -12330,7 +12398,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J79" t="b">
@@ -12341,18 +12409,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>MA263</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr"/>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P79" t="b">
         <v>0</v>
       </c>
@@ -12373,7 +12449,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -12383,7 +12459,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -12398,7 +12474,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -12409,26 +12485,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
       <c r="P80" t="b">
         <v>0</v>
       </c>
@@ -12449,17 +12517,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -12469,12 +12537,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -12485,26 +12553,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
       <c r="P81" t="b">
         <v>0</v>
       </c>
@@ -12525,17 +12585,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -12545,12 +12605,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J82" t="b">
@@ -12561,26 +12621,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
       <c r="P82" t="b">
         <v>0</v>
       </c>
@@ -12601,17 +12653,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -12637,11 +12689,7 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
           <t>C202</t>
@@ -12649,14 +12697,10 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
       <c r="P83" t="b">
         <v>0</v>
       </c>
@@ -12677,17 +12721,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -12697,7 +12741,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -12713,26 +12757,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
       <c r="P84" t="b">
         <v>0</v>
       </c>
@@ -12753,17 +12789,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -12778,7 +12814,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J85" t="b">
@@ -12789,26 +12825,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
       <c r="P85" t="b">
         <v>0</v>
       </c>
@@ -12829,32 +12857,32 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J86" t="b">
@@ -12865,26 +12893,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr"/>
       <c r="P86" t="b">
         <v>0</v>
       </c>
@@ -12905,32 +12925,32 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J87" t="b">
@@ -12944,12 +12964,12 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
@@ -12973,36 +12993,32 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -13012,17 +13028,17 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -13041,32 +13057,32 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J89" t="b">
@@ -13080,12 +13096,12 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
@@ -13109,32 +13125,32 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J90" t="b">
@@ -13145,1232 +13161,20 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr"/>
       <c r="P90" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>3</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J91" t="b">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>3</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J92" t="b">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>3</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J93" t="b">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>3</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J94" t="b">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>3</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J95" t="b">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>3</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J96" t="b">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>3</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>CS307 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J97" t="b">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>CS307 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>3</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>EC262 (Lab)</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="J98" t="b">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>L107</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>EC262 (Lab)</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>3</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>EC262 (Lab)</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="J99" t="b">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>L107</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>EC262 (Lab)</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>3</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J100" t="b">
-        <v>1</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>3</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>EC262</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J101" t="b">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>EC262</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>3</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>EC263 (Lab)</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="J102" t="b">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>L107</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>EC263 (Lab)</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>3</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>EC263 (Lab)</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="J103" t="b">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>L107</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>EC263 (Lab)</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>3</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J104" t="b">
-        <v>1</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>3</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>EC263</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J105" t="b">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>EC263</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>3</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J106" t="b">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>3</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J107" t="b">
-        <v>1</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -14500,7 +13304,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C102, C202</t>
         </is>
       </c>
     </row>
@@ -14517,7 +13321,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202, C203</t>
         </is>
       </c>
     </row>
@@ -14534,7 +13338,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C203, C204</t>
         </is>
       </c>
     </row>
@@ -14551,7 +13355,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204, C205, C302</t>
         </is>
       </c>
     </row>
@@ -14568,7 +13372,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C205, C302, C303</t>
         </is>
       </c>
     </row>
@@ -14585,7 +13389,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C302, C303, C304</t>
         </is>
       </c>
     </row>
@@ -14602,7 +13406,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C303, C304, C305</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_timetable.xlsx
@@ -320,16 +320,16 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -341,7 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1622,24 +1622,24 @@
           <t>MA263</t>
         </is>
       </c>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t>EC262</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr">
-        <is>
-          <t>EC263</t>
-        </is>
-      </c>
-      <c r="E3" s="12" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="D3" s="10" t="inlineStr">
         <is>
           <t>MA261 [C001]</t>
         </is>
       </c>
-      <c r="F3" s="13" t="inlineStr">
-        <is>
-          <t>EC261 [C304]</t>
+      <c r="E3" s="11" t="inlineStr">
+        <is>
+          <t>EC263 [L404]</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="G3" s="8" t="n"/>
@@ -1650,19 +1650,19 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>EC262</t>
-        </is>
-      </c>
-      <c r="C4" s="9" t="inlineStr">
-        <is>
-          <t>MA263</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr">
-        <is>
-          <t>MA261 [C001]</t>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>EC262 [L408]</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>EC262 [L407]</t>
+        </is>
+      </c>
+      <c r="D4" s="13" t="inlineStr">
+        <is>
+          <t>MA262 [L407]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="F4" s="14" t="inlineStr">
         <is>
-          <t>CS307 [C102]</t>
+          <t>CS307 [C204]</t>
         </is>
       </c>
       <c r="G4" s="8" t="n"/>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>EC263 [L402]</t>
+          <t>EC263 [L403]</t>
         </is>
       </c>
       <c r="D6" s="16" t="inlineStr">
@@ -1731,14 +1731,14 @@
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="E6" s="13" t="inlineStr">
-        <is>
-          <t>EC261 [C102]</t>
-        </is>
-      </c>
-      <c r="F6" s="11" t="inlineStr">
-        <is>
-          <t>EC263 (Lab) [L206]</t>
+      <c r="E6" s="10" t="inlineStr">
+        <is>
+          <t>MA261 [C001]</t>
+        </is>
+      </c>
+      <c r="F6" s="12" t="inlineStr">
+        <is>
+          <t>EC262 (Lab) [L105]</t>
         </is>
       </c>
       <c r="G6" s="8" t="n"/>
@@ -1749,7 +1749,7 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B7" s="12" t="inlineStr">
+      <c r="B7" s="10" t="inlineStr">
         <is>
           <t>MA261 (Tutorial) [C001]</t>
         </is>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="D7" s="14" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C104]</t>
+          <t>CS307 (Tutorial) [C302]</t>
         </is>
       </c>
       <c r="E7" s="8" t="inlineStr">
@@ -1769,9 +1769,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F7" s="11" t="inlineStr">
-        <is>
-          <t>EC263 (Lab) [L206]</t>
+      <c r="F7" s="12" t="inlineStr">
+        <is>
+          <t>EC262 (Lab) [L105]</t>
         </is>
       </c>
       <c r="G7" s="8" t="n"/>
@@ -1782,9 +1782,9 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B8" s="17" t="inlineStr">
-        <is>
-          <t>MA262</t>
+      <c r="B8" s="13" t="inlineStr">
+        <is>
+          <t>MA262 [L407]</t>
         </is>
       </c>
       <c r="C8" s="14" t="inlineStr">
@@ -1794,17 +1794,17 @@
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
-        </is>
-      </c>
-      <c r="E8" s="10" t="inlineStr">
-        <is>
-          <t>EC262 (Lab)</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>EC261 [C205]</t>
+        </is>
+      </c>
+      <c r="E8" s="17" t="inlineStr">
+        <is>
+          <t>EC261 [C205]</t>
+        </is>
+      </c>
+      <c r="F8" s="11" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -1815,12 +1815,12 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B9" s="17" t="inlineStr">
-        <is>
-          <t>MA262 (Tutorial) [C004]</t>
-        </is>
-      </c>
-      <c r="C9" s="13" t="inlineStr">
+      <c r="B9" s="13" t="inlineStr">
+        <is>
+          <t>MA262 (Tutorial) [L407]</t>
+        </is>
+      </c>
+      <c r="C9" s="17" t="inlineStr">
         <is>
           <t>EC261 (Tutorial) [C101]</t>
         </is>
@@ -1830,14 +1830,14 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E9" s="10" t="inlineStr">
-        <is>
-          <t>EC262 (Lab) [C004]</t>
-        </is>
-      </c>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" s="11" t="inlineStr">
+        <is>
+          <t>EC263 (Lab) [C002]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
+          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 13:00-14:30 [C302], Wed 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -2616,19 +2616,19 @@
           <t>CS307</t>
         </is>
       </c>
-      <c r="D3" s="12" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="E3" s="10" t="inlineStr">
         <is>
           <t>MA261 [C001]</t>
         </is>
       </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>MA263 [L405]</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="inlineStr">
-        <is>
-          <t>MA263 [L405]</t>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="G3" s="8" t="n"/>
@@ -2639,24 +2639,24 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="8" t="inlineStr">
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t>EC262</t>
-        </is>
-      </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>EC262 [L406]</t>
+          <t>MA261 [C001]</t>
         </is>
       </c>
       <c r="E4" s="12" t="inlineStr">
         <is>
-          <t>MA261 [C001]</t>
+          <t>EC262 [C302]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -2705,9 +2705,9 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="13" t="inlineStr">
-        <is>
-          <t>EC261 [C302]</t>
+      <c r="B6" s="17" t="inlineStr">
+        <is>
+          <t>EC261 [C303]</t>
         </is>
       </c>
       <c r="C6" s="36" t="inlineStr">
@@ -2715,9 +2715,9 @@
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="D6" s="12" t="inlineStr">
+        <is>
+          <t>EC262 [L408]</t>
         </is>
       </c>
       <c r="E6" s="36" t="inlineStr">
@@ -2740,10 +2740,10 @@
       </c>
       <c r="B7" s="14" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C102]</t>
-        </is>
-      </c>
-      <c r="C7" s="12" t="inlineStr">
+          <t>CS307 (Tutorial) [C302]</t>
+        </is>
+      </c>
+      <c r="C7" s="10" t="inlineStr">
         <is>
           <t>MA261 (Tutorial) [C001]</t>
         </is>
@@ -2776,7 +2776,7 @@
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="C8" s="13" t="inlineStr">
+      <c r="C8" s="17" t="inlineStr">
         <is>
           <t>EC261 [C205]</t>
         </is>
@@ -2786,14 +2786,14 @@
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="E8" s="12" t="inlineStr">
+        <is>
+          <t>EC262 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" s="10" t="inlineStr">
-        <is>
-          <t>EC262 (Lab) [C004]</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -2804,9 +2804,9 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B9" s="13" t="inlineStr">
-        <is>
-          <t>EC261 (Tutorial) [C102]</t>
+      <c r="B9" s="17" t="inlineStr">
+        <is>
+          <t>EC261 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -2819,14 +2819,14 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr">
+      <c r="E9" s="12" t="inlineStr">
+        <is>
+          <t>EC262 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F9" s="10" t="inlineStr">
-        <is>
-          <t>EC262 (Lab) [C004]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
+          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -3475,7 +3475,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 13:00-14:30 [C302], Wed 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="D4" s="17" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>EC261 [L405]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -3694,9 +3694,9 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="13" t="inlineStr">
-        <is>
-          <t>EC261 [C303]</t>
+      <c r="B6" s="17" t="inlineStr">
+        <is>
+          <t>EC261 [C305]</t>
         </is>
       </c>
       <c r="C6" s="36" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>EC261 [C303]</t>
+          <t>MA262 [C303]</t>
         </is>
       </c>
       <c r="E6" s="36" t="inlineStr">
@@ -3729,12 +3729,12 @@
       </c>
       <c r="B7" s="14" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C203]</t>
-        </is>
-      </c>
-      <c r="C7" s="17" t="inlineStr">
-        <is>
-          <t>MA262 (Tutorial) [C004]</t>
+          <t>CS307 (Tutorial) [C101]</t>
+        </is>
+      </c>
+      <c r="C7" s="13" t="inlineStr">
+        <is>
+          <t>MA262 (Tutorial) [L407]</t>
         </is>
       </c>
       <c r="D7" s="36" t="inlineStr">
@@ -3765,9 +3765,9 @@
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="C8" s="17" t="inlineStr">
-        <is>
-          <t>MA262 [C004]</t>
+      <c r="C8" s="13" t="inlineStr">
+        <is>
+          <t>MA262 [L407]</t>
         </is>
       </c>
       <c r="D8" s="37" t="inlineStr">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>EC263 (Lab) [C002]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -3793,9 +3793,9 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B9" s="13" t="inlineStr">
-        <is>
-          <t>EC261 (Tutorial) [C203]</t>
+      <c r="B9" s="17" t="inlineStr">
+        <is>
+          <t>EC261 (Tutorial) [C302]</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="E9" s="11" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [C003]</t>
+          <t>EC263 (Lab) [C002]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
+          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 13:00-14:30 [C302], Wed 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -4612,12 +4612,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>EC263 [C002]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA262 [L407]</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC261 [C305]</t>
+          <t>MA262 [C001]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -4703,12 +4703,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C203]</t>
+          <t>CS307 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial) [C004]</t>
+          <t>MA262 (Tutorial) [L407]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [C003]</t>
+          <t>EC263 (Lab) [C002]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C203]</t>
+          <t>EC261 (Tutorial) [C302]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [C003]</t>
+          <t>EC263 (Lab) [C002]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -4911,27 +4911,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Machine Learning [C102]</t>
+          <t>Machine Learning [C302]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C102]</t>
+          <t>3-0-2-0-4 [C302]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C102]</t>
+          <t>Full Sem [C303]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C102]</t>
+          <t>3/3 [C303]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1/0 [C104]</t>
+          <t>1/0 [C303]</t>
         </is>
       </c>
     </row>
@@ -4943,12 +4943,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Signals &amp; Systems [C203]</t>
+          <t>Signals &amp; Systems [C204]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2-1-0-0-3 [C203]</t>
+          <t>2-1-0-0-3 [C204]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1/1 [C203]</t>
+          <t>1/1 [C204]</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Semiconductor Devices [C203]</t>
+          <t>Semiconductor Devices [C204]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Analog Electronics [C203]</t>
+          <t>Analog Electronics [C204]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5039,12 +5039,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Differential Equations [C101]</t>
+          <t>Differential Equations [C001]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C101]</t>
+          <t>2-0-0-0-2 [C001]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -5071,12 +5071,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Multivariable Calculus [C101]</t>
+          <t>Multivariable Calculus [C001]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C101]</t>
+          <t>2-0-0-0-2 [C001]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Random Processes [C203]</t>
+          <t>Random Processes [C204]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C203]</t>
+          <t>2-0-0-0-2 [C204]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -5233,7 +5233,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -5297,7 +5297,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -5393,7 +5393,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -5485,10 +5485,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>16.5</v>
       </c>
       <c r="E2" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5515,10 +5515,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5549,10 +5549,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -5583,10 +5583,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5617,10 +5617,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>16.5</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>3.3</v>
+        <v>0.3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5651,10 +5651,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>25.5</v>
       </c>
       <c r="E7" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5957,10 +5957,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="E16" t="n">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -6127,10 +6127,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -6195,10 +6195,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -6229,10 +6229,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6297,10 +6297,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6679,7 +6679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P90"/>
+  <dimension ref="A1:P93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6954,7 +6954,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -6968,7 +6968,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -7040,7 +7040,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -7184,7 +7184,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -7256,7 +7256,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -7328,7 +7328,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -7400,7 +7400,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -7448,19 +7448,15 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="b">
         <v>0</v>
       </c>
@@ -7472,7 +7468,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -7520,19 +7516,15 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="b">
         <v>0</v>
       </c>
@@ -7544,7 +7536,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -7616,7 +7608,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -7726,27 +7718,27 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -7760,17 +7752,17 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P15" t="b">
@@ -7798,12 +7790,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -7837,12 +7829,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P16" t="b">
@@ -7870,12 +7862,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -7885,12 +7877,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -7904,12 +7896,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -7942,12 +7934,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -7981,7 +7973,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -8014,12 +8006,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2-1-0-0-3</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -8034,7 +8026,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -8048,12 +8040,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2-1-0-0-3</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -8086,12 +8078,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-1-0-0-3</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -8125,7 +8117,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-1-0-0-3</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -8158,7 +8150,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -8230,12 +8222,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -8250,7 +8242,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -8264,12 +8256,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -8302,7 +8294,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -8312,19 +8304,15 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="b">
         <v>0</v>
       </c>
@@ -8336,7 +8324,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -8374,7 +8362,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -8384,19 +8372,15 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="b">
         <v>0</v>
       </c>
@@ -8408,7 +8392,7 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -8441,17 +8425,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8466,7 +8450,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -8480,12 +8464,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -8518,12 +8502,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -8533,12 +8517,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -8552,12 +8536,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -8595,24 +8579,20 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="b">
         <v>0</v>
       </c>
@@ -8624,12 +8604,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -8754,7 +8734,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -8768,7 +8748,7 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -9317,7 +9297,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -9336,7 +9316,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -9389,7 +9369,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -9408,7 +9388,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -9538,7 +9518,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -9552,7 +9532,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -10178,7 +10158,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -10192,7 +10172,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -10264,7 +10244,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -10654,12 +10634,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -10669,12 +10649,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -10685,26 +10665,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="b">
         <v>0</v>
       </c>
@@ -10735,7 +10707,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -10768,12 +10740,12 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -10811,7 +10783,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -10826,7 +10798,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J58" t="b">
@@ -10844,12 +10816,12 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -10887,7 +10859,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -10902,7 +10874,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -10920,12 +10892,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -10963,7 +10935,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10996,12 +10968,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -11039,7 +11011,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -11054,7 +11026,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -11072,12 +11044,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -11115,7 +11087,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -11148,12 +11120,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -11186,12 +11158,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -11201,12 +11173,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -11217,18 +11189,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr"/>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P63" t="b">
         <v>0</v>
       </c>
@@ -11249,17 +11229,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -11288,12 +11268,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -11322,12 +11302,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -11337,12 +11317,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -11353,26 +11333,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="b">
         <v>0</v>
       </c>
@@ -11398,12 +11370,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -11413,7 +11385,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -11429,26 +11401,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
       <c r="P66" t="b">
         <v>0</v>
       </c>
@@ -11479,7 +11443,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -11494,7 +11458,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -11512,12 +11476,12 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -11555,7 +11519,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -11570,7 +11534,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -11588,12 +11552,12 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -11631,7 +11595,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -11664,12 +11628,12 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -11707,7 +11671,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -11740,12 +11704,12 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -11783,7 +11747,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -11798,7 +11762,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -11816,12 +11780,12 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -11854,12 +11818,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -11874,7 +11838,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -11885,18 +11849,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P72" t="b">
         <v>0</v>
       </c>
@@ -11917,17 +11889,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -11942,7 +11914,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -11960,17 +11932,17 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P73" t="b">
@@ -11993,17 +11965,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -12018,7 +11990,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -12029,26 +12001,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
       <c r="P74" t="b">
         <v>0</v>
       </c>
@@ -12074,12 +12038,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -12105,26 +12069,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
       <c r="P75" t="b">
         <v>0</v>
       </c>
@@ -12150,12 +12106,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -12165,7 +12121,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -12181,26 +12137,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
       <c r="P76" t="b">
         <v>0</v>
       </c>
@@ -12231,7 +12179,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -12264,12 +12212,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -12307,7 +12255,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -12340,12 +12288,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -12383,7 +12331,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -12416,12 +12364,12 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -12454,12 +12402,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -12485,18 +12433,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr"/>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P80" t="b">
         <v>0</v>
       </c>
@@ -12522,12 +12478,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -12537,12 +12493,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -12553,18 +12509,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr"/>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P81" t="b">
         <v>0</v>
       </c>
@@ -12585,17 +12549,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -12605,7 +12569,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -12621,18 +12585,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>MA263</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P82" t="b">
         <v>0</v>
       </c>
@@ -12653,7 +12625,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -12663,7 +12635,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -12678,7 +12650,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J83" t="b">
@@ -12689,18 +12661,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>EC261</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr"/>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P83" t="b">
         <v>0</v>
       </c>
@@ -12721,17 +12701,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -12741,12 +12721,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J84" t="b">
@@ -12760,12 +12740,12 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
@@ -12789,17 +12769,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -12814,7 +12794,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J85" t="b">
@@ -12828,12 +12808,12 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
@@ -12857,32 +12837,32 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J86" t="b">
@@ -12896,12 +12876,12 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
@@ -12925,34 +12905,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="b">
         <v>0</v>
       </c>
@@ -12964,12 +12940,12 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
@@ -12993,7 +12969,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -13003,20 +12979,24 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J88" t="b">
         <v>0</v>
       </c>
@@ -13028,12 +13008,12 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
@@ -13062,7 +13042,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -13072,17 +13052,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J89" t="b">
@@ -13096,7 +13076,7 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -13130,7 +13110,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -13140,17 +13120,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J90" t="b">
@@ -13164,7 +13144,7 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -13174,6 +13154,210 @@
       </c>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>3</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J91" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>3</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J92" t="b">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>3</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J93" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13321,7 +13505,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C202, C203</t>
+          <t>C104, C203</t>
         </is>
       </c>
     </row>
@@ -13338,7 +13522,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C203, C204</t>
+          <t>C202, C204</t>
         </is>
       </c>
     </row>
@@ -13355,7 +13539,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C204, C205, C302</t>
+          <t>C203, C205</t>
         </is>
       </c>
     </row>
@@ -13372,7 +13556,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C205, C302, C303</t>
+          <t>C204, C302</t>
         </is>
       </c>
     </row>
@@ -13389,7 +13573,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C302, C303, C304</t>
+          <t>C205, C303</t>
         </is>
       </c>
     </row>
@@ -13406,7 +13590,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C303, C304, C305</t>
+          <t>C302, C304</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_timetable.xlsx
@@ -1586,27 +1586,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -1629,12 +1629,12 @@
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>MA261 [C001]</t>
+          <t>MA261 [C303]</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>EC263 [L404]</t>
+          <t>EC263 [L405]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -1652,17 +1652,17 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>EC262 [L408]</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>EC262 [L407]</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>MA262 [L407]</t>
+          <t>MA262 [L406]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="F4" s="14" t="inlineStr">
         <is>
-          <t>CS307 [C204]</t>
+          <t>CS307 [C104]</t>
         </is>
       </c>
       <c r="G4" s="8" t="n"/>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>EC263 [L403]</t>
+          <t>EC263 [L404]</t>
         </is>
       </c>
       <c r="D6" s="16" t="inlineStr">
@@ -1733,12 +1733,12 @@
       </c>
       <c r="E6" s="10" t="inlineStr">
         <is>
-          <t>MA261 [C001]</t>
+          <t>MA261 [L407]</t>
         </is>
       </c>
       <c r="F6" s="12" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L105]</t>
+          <t>EC262 (Lab) [L206]</t>
         </is>
       </c>
       <c r="G6" s="8" t="n"/>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B7" s="10" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial) [C001]</t>
+          <t>MA261 (Tutorial) [C303]</t>
         </is>
       </c>
       <c r="C7" s="16" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="D7" s="14" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C302]</t>
+          <t>CS307 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="E7" s="8" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="F7" s="12" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L105]</t>
+          <t>EC262 (Lab) [L206]</t>
         </is>
       </c>
       <c r="G7" s="8" t="n"/>
@@ -1784,22 +1784,22 @@
       </c>
       <c r="B8" s="13" t="inlineStr">
         <is>
-          <t>MA262 [L407]</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>CS307 [C204]</t>
+          <t>CS307 [C104]</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>EC261 [C205]</t>
+          <t>EC261 [C303]</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>EC261 [C205]</t>
+          <t>EC261 [C303]</t>
         </is>
       </c>
       <c r="F8" s="11" t="inlineStr">
@@ -1817,12 +1817,12 @@
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial) [L407]</t>
+          <t>MA262 (Tutorial) [C004]</t>
         </is>
       </c>
       <c r="C9" s="17" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C101]</t>
+          <t>EC261 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="F9" s="11" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [C002]</t>
+          <t>EC263 (Lab) [C004]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -1850,27 +1850,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -2575,27 +2575,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="E3" s="10" t="inlineStr">
         <is>
-          <t>MA261 [C001]</t>
+          <t>MA261 [C303]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -2651,12 +2651,12 @@
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>MA261 [C001]</t>
+          <t>MA261 [L407]</t>
         </is>
       </c>
       <c r="E4" s="12" t="inlineStr">
         <is>
-          <t>EC262 [C302]</t>
+          <t>EC262 [C304]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="B6" s="17" t="inlineStr">
         <is>
-          <t>EC261 [C303]</t>
+          <t>EC261 [C304]</t>
         </is>
       </c>
       <c r="C6" s="36" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="D6" s="12" t="inlineStr">
         <is>
-          <t>EC262 [L408]</t>
+          <t>EC262 [C303]</t>
         </is>
       </c>
       <c r="E6" s="36" t="inlineStr">
@@ -2740,12 +2740,12 @@
       </c>
       <c r="B7" s="14" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C302]</t>
+          <t>CS307 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial) [C001]</t>
+          <t>MA261 (Tutorial) [C303]</t>
         </is>
       </c>
       <c r="D7" s="36" t="inlineStr">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="C8" s="17" t="inlineStr">
         <is>
-          <t>EC261 [C205]</t>
+          <t>EC261 [C303]</t>
         </is>
       </c>
       <c r="D8" s="37" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="E8" s="12" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L105]</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="E9" s="12" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L105]</t>
+          <t>EC262 (Lab) [C001]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -2839,27 +2839,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -3564,27 +3564,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>MA262 [C303]</t>
+          <t>MA262 [L406]</t>
         </is>
       </c>
       <c r="E6" s="36" t="inlineStr">
@@ -3729,12 +3729,12 @@
       </c>
       <c r="B7" s="14" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C101]</t>
+          <t>CS307 (Tutorial) [C305]</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial) [L407]</t>
+          <t>MA262 (Tutorial) [C004]</t>
         </is>
       </c>
       <c r="D7" s="36" t="inlineStr">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>MA262 [L407]</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="D8" s="37" t="inlineStr">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [C002]</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="B9" s="17" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C302]</t>
+          <t>EC261 (Tutorial) [C102]</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="E9" s="11" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [C002]</t>
+          <t>EC263 (Lab) [C101]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -3828,27 +3828,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -4543,27 +4543,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
     </row>
@@ -4612,7 +4612,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EC263 [C002]</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MA262 [C001]</t>
+          <t>MA262 [L406]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -4703,12 +4703,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C101]</t>
+          <t>CS307 (Tutorial) [C305]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial) [L407]</t>
+          <t>MA262 (Tutorial) [L403]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MA262 [L407]</t>
+          <t>MA262 [L403]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [C002]</t>
+          <t>EC263 (Lab) [C003]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C302]</t>
+          <t>EC261 (Tutorial) [C102]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [C002]</t>
+          <t>EC263 (Lab) [C101]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -4799,27 +4799,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
     </row>
@@ -4911,27 +4911,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Machine Learning [C302]</t>
+          <t>Machine Learning [C102]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C302]</t>
+          <t>3-0-2-0-4 [C102]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C303]</t>
+          <t>Full Sem [C102]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C303]</t>
+          <t>3/3 [C102]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1/0 [C303]</t>
+          <t>1/0 [C102]</t>
         </is>
       </c>
     </row>
@@ -4943,27 +4943,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Signals &amp; Systems [C204]</t>
+          <t>Signals &amp; Systems [C203]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2-1-0-0-3 [C204]</t>
+          <t>2-1-0-0-3 [C203]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Full Sem [C204]</t>
+          <t>Full Sem [C203]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2/2 [C204]</t>
+          <t>2/2 [C203]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1/1 [C204]</t>
+          <t>1/1 [C203]</t>
         </is>
       </c>
     </row>
@@ -4975,27 +4975,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Semiconductor Devices [C204]</t>
+          <t>Semiconductor Devices [C203]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3-0-2-0-2 [C204]</t>
+          <t>3-0-2-0-2 [C203]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C204]</t>
+          <t>Pre-Mid Only [C203]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3/3 [C204]</t>
+          <t>3/3 [C203]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0/0 [C204]</t>
+          <t>0/0 [C203]</t>
         </is>
       </c>
     </row>
@@ -5007,27 +5007,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Analog Electronics [C204]</t>
+          <t>Analog Electronics [C203]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3-0-2-0-2 [C204]</t>
+          <t>3-0-2-0-2 [C203]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C204]</t>
+          <t>Post-Mid Only [C203]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3/3 [C204]</t>
+          <t>3/3 [C203]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0/0 [C204]</t>
+          <t>0/0 [C203]</t>
         </is>
       </c>
     </row>
@@ -5039,12 +5039,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Differential Equations [C001]</t>
+          <t>Differential Equations [C305]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C001]</t>
+          <t>2-0-0-0-2 [C305]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -5071,12 +5071,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Multivariable Calculus [C001]</t>
+          <t>Multivariable Calculus [C305]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C001]</t>
+          <t>2-0-0-0-2 [C305]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -5103,27 +5103,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Random Processes [C204]</t>
+          <t>Random Processes [C203]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C204]</t>
+          <t>2-0-0-0-2 [C102]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C204]</t>
+          <t>Pre-Mid Only [C203]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2/2 [C204]</t>
+          <t>2/2 [C203]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0/0 [C204]</t>
+          <t>0/0 [C203]</t>
         </is>
       </c>
     </row>
@@ -5485,10 +5485,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5515,10 +5515,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5549,10 +5549,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -5617,10 +5617,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>16.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3</v>
+        <v>3.3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5651,10 +5651,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>25.5</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5957,10 +5957,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -6127,10 +6127,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -6195,10 +6195,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -6229,10 +6229,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6297,10 +6297,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6481,10 +6481,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -6583,10 +6583,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -6617,10 +6617,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -6679,7 +6679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P93"/>
+  <dimension ref="A1:P89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6824,7 +6824,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -6954,7 +6954,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -6968,7 +6968,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -7040,7 +7040,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -7112,7 +7112,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -7184,7 +7184,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -7256,7 +7256,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -7328,7 +7328,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -7400,7 +7400,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -7448,15 +7448,19 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
@@ -7468,7 +7472,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -7516,15 +7520,19 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
@@ -7536,7 +7544,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -7608,7 +7616,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -7680,7 +7688,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -7718,27 +7726,27 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -7752,17 +7760,17 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P15" t="b">
@@ -7790,12 +7798,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -7824,17 +7832,17 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P16" t="b">
@@ -7862,12 +7870,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -7877,12 +7885,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -7896,12 +7904,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -7934,12 +7942,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -7973,7 +7981,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -8006,12 +8014,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>2-1-0-0-3</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -8026,7 +8034,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -8040,12 +8048,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>2-1-0-0-3</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -8078,12 +8086,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2-1-0-0-3</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -8112,12 +8120,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2-1-0-0-3</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -8150,7 +8158,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -8184,7 +8192,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -8222,12 +8230,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -8256,12 +8264,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -8294,7 +8302,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -8304,15 +8312,19 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
@@ -8324,7 +8336,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -8362,7 +8374,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -8372,15 +8384,19 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
@@ -8392,7 +8408,7 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -8425,17 +8441,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8450,7 +8466,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -8464,12 +8480,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -8502,12 +8518,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -8517,12 +8533,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -8536,12 +8552,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -8574,25 +8590,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
@@ -8604,12 +8624,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -8642,12 +8662,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -8681,7 +8701,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -8714,7 +8734,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -8748,7 +8768,7 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -8786,12 +8806,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -8820,12 +8840,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -8858,12 +8878,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -8892,12 +8912,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -8930,29 +8950,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="b">
         <v>0</v>
       </c>
@@ -8964,12 +8980,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -9002,12 +9018,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -9037,7 +9053,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -9070,25 +9086,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
@@ -9100,12 +9120,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -9133,17 +9153,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -9158,7 +9178,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -9172,12 +9192,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -9210,22 +9230,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -9244,17 +9264,17 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P36" t="b">
@@ -9282,7 +9302,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -9292,12 +9312,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -9316,7 +9336,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -9354,22 +9374,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -9388,17 +9408,17 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P38" t="b">
@@ -9426,12 +9446,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9465,7 +9485,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9498,12 +9518,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -9532,12 +9552,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9570,12 +9590,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -9604,12 +9624,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9642,7 +9662,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -9676,7 +9696,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -9714,29 +9734,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="b">
         <v>0</v>
       </c>
@@ -9748,12 +9764,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -9786,7 +9802,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -9854,7 +9870,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -9864,15 +9880,19 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
@@ -9884,7 +9904,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -9917,17 +9937,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -9942,7 +9962,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -9956,12 +9976,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -9994,12 +10014,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -10028,12 +10048,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -10066,12 +10086,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>1/0</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -10105,7 +10125,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>1/0</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -10138,12 +10158,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1/0</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -10172,12 +10192,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>1/0</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -10210,12 +10230,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -10244,12 +10264,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -10282,7 +10302,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -10316,7 +10336,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -10354,29 +10374,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>1/0</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="b">
         <v>0</v>
       </c>
@@ -10388,12 +10404,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>1/0</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -10426,7 +10442,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -10494,25 +10510,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
@@ -10524,12 +10544,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>1/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -10557,17 +10577,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -10582,7 +10602,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -10590,18 +10610,22 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -10634,12 +10658,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -10649,12 +10673,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -10665,18 +10689,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>MA263</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr"/>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P56" t="b">
         <v>0</v>
       </c>
@@ -10707,7 +10739,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -10740,12 +10772,12 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -10783,7 +10815,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -10798,7 +10830,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J58" t="b">
@@ -10816,12 +10848,12 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -10859,7 +10891,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -10874,7 +10906,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -10892,12 +10924,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -10935,7 +10967,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10968,12 +11000,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -11011,7 +11043,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -11026,7 +11058,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -11044,12 +11076,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -11082,12 +11114,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -11097,7 +11129,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -11113,26 +11145,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="b">
         <v>0</v>
       </c>
@@ -11153,7 +11177,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -11163,7 +11187,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -11173,12 +11197,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -11189,26 +11213,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="b">
         <v>0</v>
       </c>
@@ -11229,17 +11245,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -11249,12 +11265,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -11265,18 +11281,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr"/>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P64" t="b">
         <v>0</v>
       </c>
@@ -11302,12 +11326,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -11317,7 +11341,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -11333,18 +11357,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>MA263</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr"/>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P65" t="b">
         <v>0</v>
       </c>
@@ -11370,12 +11402,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -11385,12 +11417,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -11401,18 +11433,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>EC263</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr"/>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P66" t="b">
         <v>0</v>
       </c>
@@ -11443,7 +11483,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -11458,7 +11498,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -11476,12 +11516,12 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -11519,7 +11559,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -11552,12 +11592,12 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -11595,7 +11635,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -11628,12 +11668,12 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -11671,24 +11711,20 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="b">
         <v>0</v>
       </c>
@@ -11704,12 +11740,12 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -11742,12 +11778,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -11773,26 +11809,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="b">
         <v>0</v>
       </c>
@@ -11813,32 +11841,32 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -11849,26 +11877,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
       <c r="P72" t="b">
         <v>0</v>
       </c>
@@ -11889,17 +11909,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -11914,7 +11934,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -11932,17 +11952,17 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P73" t="b">
@@ -11965,17 +11985,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -11990,7 +12010,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -12001,18 +12021,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr"/>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P74" t="b">
         <v>0</v>
       </c>
@@ -12038,12 +12066,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -12069,18 +12097,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>MA263</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr"/>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P75" t="b">
         <v>0</v>
       </c>
@@ -12106,12 +12142,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -12121,7 +12157,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -12137,18 +12173,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr"/>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P76" t="b">
         <v>0</v>
       </c>
@@ -12179,7 +12223,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -12212,12 +12256,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -12255,7 +12299,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -12288,12 +12332,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -12331,7 +12375,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -12364,12 +12408,12 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -12402,12 +12446,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -12433,26 +12477,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
       <c r="P80" t="b">
         <v>0</v>
       </c>
@@ -12478,12 +12514,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -12493,12 +12529,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -12509,26 +12545,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
       <c r="P81" t="b">
         <v>0</v>
       </c>
@@ -12549,17 +12577,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -12569,7 +12597,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -12585,26 +12613,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
       <c r="P82" t="b">
         <v>0</v>
       </c>
@@ -12625,7 +12645,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -12635,7 +12655,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -12645,7 +12665,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -12661,26 +12681,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
       <c r="P83" t="b">
         <v>0</v>
       </c>
@@ -12701,17 +12713,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -12740,12 +12752,12 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
@@ -12769,32 +12781,32 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J85" t="b">
@@ -12808,12 +12820,12 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
@@ -12837,32 +12849,32 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J86" t="b">
@@ -12876,12 +12888,12 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
@@ -12905,17 +12917,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -12925,10 +12937,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J87" t="b">
         <v>0</v>
       </c>
@@ -12940,12 +12956,12 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
@@ -12974,27 +12990,27 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J88" t="b">
@@ -13008,12 +13024,12 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
@@ -13037,32 +13053,32 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J89" t="b">
@@ -13076,288 +13092,16 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>3</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>EC262 (Lab)</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="J90" t="b">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>EC262 (Lab)</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>3</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>EC263 (Lab)</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="J91" t="b">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>EC263 (Lab)</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>3</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>EC263 (Lab)</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J92" t="b">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>EC263 (Lab)</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>3</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>EC262</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J93" t="b">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>EC262</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13488,7 +13232,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C102, C202</t>
+          <t>C101, C202</t>
         </is>
       </c>
     </row>
@@ -13505,7 +13249,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C104, C203</t>
+          <t>C104, C203, C204</t>
         </is>
       </c>
     </row>
@@ -13522,7 +13266,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C202, C204</t>
+          <t>C202, C204, C302</t>
         </is>
       </c>
     </row>
@@ -13539,7 +13283,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C203, C205</t>
+          <t>C203, C205, C303</t>
         </is>
       </c>
     </row>
@@ -13556,7 +13300,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C204, C302</t>
+          <t>C204, C302, C304</t>
         </is>
       </c>
     </row>
@@ -13573,7 +13317,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C205, C303</t>
+          <t>C205, C303, C305</t>
         </is>
       </c>
     </row>
@@ -13590,7 +13334,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C302, C304</t>
+          <t>C001, C302, C304</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_timetable.xlsx
@@ -1586,27 +1586,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C305]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C304]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C205]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -1619,22 +1619,22 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>MA263 [L407]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>MA263 [L206]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>MA261 [C303]</t>
+          <t>MA261 [C104]</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>EC263 [L405]</t>
+          <t>EC263 [C002]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -1652,17 +1652,17 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC262 [L106]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC262 [L106]</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>MA262 [L406]</t>
+          <t>MA262 [L404]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="F4" s="14" t="inlineStr">
         <is>
-          <t>CS307 [C104]</t>
+          <t>CS307 [L406]</t>
         </is>
       </c>
       <c r="G4" s="8" t="n"/>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>EC263 [L404]</t>
+          <t>EC263 [C002]</t>
         </is>
       </c>
       <c r="D6" s="16" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="E6" s="10" t="inlineStr">
         <is>
-          <t>MA261 [L407]</t>
+          <t>MA261 [C104]</t>
         </is>
       </c>
       <c r="F6" s="12" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B7" s="10" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial) [C303]</t>
+          <t>MA261 (Tutorial) [C104]</t>
         </is>
       </c>
       <c r="C7" s="16" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="D7" s="14" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C101]</t>
+          <t>CS307 (Tutorial) [C305]</t>
         </is>
       </c>
       <c r="E7" s="8" t="inlineStr">
@@ -1784,27 +1784,27 @@
       </c>
       <c r="B8" s="13" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA262 [L407]</t>
         </is>
       </c>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>CS307 [C104]</t>
+          <t>CS307 [L406]</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>EC261 [C303]</t>
+          <t>EC261 [C202]</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>EC261 [C303]</t>
+          <t>EC261 [C304]</t>
         </is>
       </c>
       <c r="F8" s="11" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>EC263 (Lab) [L105]</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -1817,12 +1817,12 @@
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial) [C004]</t>
+          <t>MA262 (Tutorial) [L407]</t>
         </is>
       </c>
       <c r="C9" s="17" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C202]</t>
+          <t>EC261 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="F9" s="11" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [C004]</t>
+          <t>EC263 (Lab) [L105]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -1850,27 +1850,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C304]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C305]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C305]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C203]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C304]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -2288,12 +2288,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C101]</t>
+          <t>Tue 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2321,12 +2321,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C102]</t>
+          <t>Tue 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2354,12 +2354,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C104]</t>
+          <t>Tue 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C202]</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2420,12 +2420,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C305], Wed 13:00-14:30 [C305]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C203]</t>
+          <t>Tue 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C204]</t>
+          <t>Tue 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2486,12 +2486,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C302], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 13:00-14:30 [C004], Wed 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C205]</t>
+          <t>Tue 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -2575,27 +2575,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C305]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C304]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C205]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -2608,22 +2608,22 @@
       </c>
       <c r="B3" s="14" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS307 [L407]</t>
         </is>
       </c>
       <c r="C3" s="14" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS307 [L107]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>MA263 [L207]</t>
         </is>
       </c>
       <c r="E3" s="10" t="inlineStr">
         <is>
-          <t>MA261 [C303]</t>
+          <t>MA261 [C104]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>MA263 [L208]</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
@@ -2651,12 +2651,12 @@
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>MA261 [L407]</t>
+          <t>MA261 [C307]</t>
         </is>
       </c>
       <c r="E4" s="12" t="inlineStr">
         <is>
-          <t>EC262 [C304]</t>
+          <t>EC262 [L106]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="D6" s="12" t="inlineStr">
         <is>
-          <t>EC262 [C303]</t>
+          <t>EC262 [C003]</t>
         </is>
       </c>
       <c r="E6" s="36" t="inlineStr">
@@ -2740,12 +2740,12 @@
       </c>
       <c r="B7" s="14" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C304]</t>
+          <t>CS307 (Tutorial) [C305]</t>
         </is>
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial) [C303]</t>
+          <t>MA261 (Tutorial) [C104]</t>
         </is>
       </c>
       <c r="D7" s="36" t="inlineStr">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="C8" s="17" t="inlineStr">
         <is>
-          <t>EC261 [C303]</t>
+          <t>EC261 [L407]</t>
         </is>
       </c>
       <c r="D8" s="37" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="E8" s="12" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>EC262 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="B9" s="17" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C101]</t>
+          <t>EC261 (Tutorial) [C302]</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="E9" s="12" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [C001]</t>
+          <t>EC262 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -2839,27 +2839,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C304]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C305]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C305]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C203]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C304]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -3277,12 +3277,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C101]</t>
+          <t>Tue 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3310,12 +3310,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C102]</t>
+          <t>Tue 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3343,12 +3343,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C104]</t>
+          <t>Tue 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C202]</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3409,12 +3409,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C305], Wed 13:00-14:30 [C305]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C203]</t>
+          <t>Tue 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C204]</t>
+          <t>Tue 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3475,12 +3475,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C302], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 13:00-14:30 [C004], Wed 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C205]</t>
+          <t>Tue 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -3564,27 +3564,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C305]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C304]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C205]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -3597,12 +3597,12 @@
       </c>
       <c r="B3" s="14" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS307 [L406]</t>
         </is>
       </c>
       <c r="C3" s="14" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS307 [L207]</t>
         </is>
       </c>
       <c r="D3" s="8" t="inlineStr">
@@ -3630,17 +3630,17 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>EC263 [L107]</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>EC263 [C004]</t>
         </is>
       </c>
       <c r="D4" s="17" t="inlineStr">
         <is>
-          <t>EC261 [L405]</t>
+          <t>EC261 [L403]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="B6" s="17" t="inlineStr">
         <is>
-          <t>EC261 [C305]</t>
+          <t>EC261 [C001]</t>
         </is>
       </c>
       <c r="C6" s="36" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>MA262 [L406]</t>
+          <t>MA262 [L404]</t>
         </is>
       </c>
       <c r="E6" s="36" t="inlineStr">
@@ -3729,12 +3729,12 @@
       </c>
       <c r="B7" s="14" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C305]</t>
+          <t>CS307 (Tutorial) [C302]</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial) [C004]</t>
+          <t>MA262 (Tutorial) [L407]</t>
         </is>
       </c>
       <c r="D7" s="36" t="inlineStr">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [L407]</t>
         </is>
       </c>
       <c r="D8" s="37" t="inlineStr">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>EC263 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="B9" s="17" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C102]</t>
+          <t>EC261 (Tutorial) [C204]</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="E9" s="11" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [C101]</t>
+          <t>EC263 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -3828,27 +3828,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C304]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C305]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C305]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C203]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C304]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -4266,12 +4266,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C101]</t>
+          <t>Tue 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4299,12 +4299,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C102]</t>
+          <t>Tue 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -4332,12 +4332,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C104]</t>
+          <t>Tue 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C202]</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4398,12 +4398,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C305], Wed 13:00-14:30 [C305]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C203]</t>
+          <t>Tue 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C204]</t>
+          <t>Tue 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4464,12 +4464,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C302], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 13:00-14:30 [C004], Wed 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C205]</t>
+          <t>Tue 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -4543,27 +4543,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C305]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C304]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C205]</t>
         </is>
       </c>
     </row>
@@ -4575,12 +4575,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS307 [L407]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS307 [L407]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4607,17 +4607,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>EC263 [L407]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>EC263 [L407]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>EC261 [L403]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EC261 [C305]</t>
+          <t>EC261 [L408]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MA262 [L406]</t>
+          <t>MA262 [C101]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -4703,12 +4703,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C305]</t>
+          <t>CS307 (Tutorial) [L407]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial) [L403]</t>
+          <t>MA262 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MA262 [L403]</t>
+          <t>MA262 [C101]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [C003]</t>
+          <t>EC263 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C102]</t>
+          <t>EC261 (Tutorial) [L404]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4799,27 +4799,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C304]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C305]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C305]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C203]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C304]</t>
         </is>
       </c>
     </row>
@@ -4879,27 +4879,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Course Name [L403]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>L-T-P-S-C [L407]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>Term Type [L403]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>Lectures Hrs [L407]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>Tutorials Hrs [L408]</t>
         </is>
       </c>
     </row>
@@ -4911,27 +4911,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Machine Learning [C102]</t>
+          <t>Machine Learning [C004]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C102]</t>
+          <t>3-0-2-0-4 [C004]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C102]</t>
+          <t>Full Sem [C004]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C102]</t>
+          <t>3/3 [C004]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1/0 [C102]</t>
+          <t>1/0 [C004]</t>
         </is>
       </c>
     </row>
@@ -4943,27 +4943,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Signals &amp; Systems [C203]</t>
+          <t>Signals &amp; Systems [C102]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2-1-0-0-3 [C203]</t>
+          <t>2-1-0-0-3 [C102]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Full Sem [C203]</t>
+          <t>Full Sem [C204]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2/2 [C203]</t>
+          <t>2/2 [C305]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1/1 [C203]</t>
+          <t>1/1 [C104]</t>
         </is>
       </c>
     </row>
@@ -4975,27 +4975,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Semiconductor Devices [C203]</t>
+          <t>Semiconductor Devices [C202]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3-0-2-0-2 [C203]</t>
+          <t>3-0-2-0-2 [C104]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C203]</t>
+          <t>Pre-Mid Only [C102]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3/3 [C203]</t>
+          <t>3/3 [C204]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0/0 [C203]</t>
+          <t>0/0 [C104]</t>
         </is>
       </c>
     </row>
@@ -5007,27 +5007,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Analog Electronics [C203]</t>
+          <t>Analog Electronics [C204]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3-0-2-0-2 [C203]</t>
+          <t>3-0-2-0-2 [C303]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C203]</t>
+          <t>Post-Mid Only [C104]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3/3 [C203]</t>
+          <t>3/3 [C303]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0/0 [C203]</t>
+          <t>0/0 [C202]</t>
         </is>
       </c>
     </row>
@@ -5039,27 +5039,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Differential Equations [C305]</t>
+          <t>Differential Equations [L405]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C305]</t>
+          <t>2-0-0-0-2 [L407]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C001]</t>
+          <t>Pre-Mid Only [L403]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2/2 [C001]</t>
+          <t>2/2 [L407]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1/0 [C001]</t>
+          <t>1/0 [L408]</t>
         </is>
       </c>
     </row>
@@ -5071,27 +5071,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Multivariable Calculus [C305]</t>
+          <t>Multivariable Calculus [L403]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C305]</t>
+          <t>2-0-0-0-2 [L404]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C001]</t>
+          <t>Post-Mid Only [L406]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2/2 [C001]</t>
+          <t>2/2 [L403]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1/0 [C001]</t>
+          <t>1/0 [L402]</t>
         </is>
       </c>
     </row>
@@ -5103,27 +5103,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Random Processes [C203]</t>
+          <t>Random Processes [C104]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C102]</t>
+          <t>2-0-0-0-2 [C202]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C203]</t>
+          <t>Pre-Mid Only [C202]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2/2 [C203]</t>
+          <t>2/2 [C102]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0/0 [C203]</t>
+          <t>0/0 [C101]</t>
         </is>
       </c>
     </row>
@@ -5159,27 +5159,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>Course [L406]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Course Code [L403]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>Lecture Slot - Classroom [L407]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>Tutorial Slot - Classroom [L406]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>L-T-P-S-C [L404]</t>
         </is>
       </c>
     </row>
@@ -5191,27 +5191,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1</t>
+          <t>Electronics Systems design-1 [L406]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC251 [L403]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L404]</t>
         </is>
       </c>
     </row>
@@ -5223,27 +5223,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1</t>
+          <t>Electronics Systems design-1 [L406]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC251 [L403]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L404]</t>
         </is>
       </c>
     </row>
@@ -5255,27 +5255,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1</t>
+          <t>Electronics Systems design-1 [L406]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC251 [L403]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L404]</t>
         </is>
       </c>
     </row>
@@ -5287,27 +5287,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1</t>
+          <t>Electronics Systems design-1 [L406]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC251 [L403]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L404]</t>
         </is>
       </c>
     </row>
@@ -5319,27 +5319,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1</t>
+          <t>Electronics Systems design-1 [L406]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC251 [L403]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L404]</t>
         </is>
       </c>
     </row>
@@ -5351,27 +5351,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1</t>
+          <t>Electronics Systems design-1 [L406]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC251 [L403]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L404]</t>
         </is>
       </c>
     </row>
@@ -5383,27 +5383,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1</t>
+          <t>Electronics Systems design-1 [L406]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC251 [L403]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L404]</t>
         </is>
       </c>
     </row>
@@ -5485,10 +5485,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5549,10 +5549,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -5583,10 +5583,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5617,10 +5617,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>16.5</v>
+        <v>7.5</v>
       </c>
       <c r="E6" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5651,10 +5651,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5753,10 +5753,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -5889,10 +5889,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>28.5</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>5.7</v>
+        <v>0.6</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5957,10 +5957,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5991,10 +5991,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -6127,10 +6127,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>28.5</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>5.7</v>
+        <v>0.6</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -6229,10 +6229,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6263,10 +6263,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -6297,10 +6297,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6447,10 +6447,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -6481,10 +6481,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -6515,10 +6515,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -6549,10 +6549,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -6583,10 +6583,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -6617,10 +6617,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -6651,10 +6651,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -6679,7 +6679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P89"/>
+  <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -6824,7 +6824,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -6862,12 +6862,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -6877,7 +6877,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="J3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -6896,12 +6896,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -6910,7 +6910,7 @@
         </is>
       </c>
       <c r="P3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -6934,12 +6934,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="J4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -6968,21 +6968,21 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -7006,12 +7006,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -7021,12 +7021,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -7040,17 +7040,17 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P5" t="b">
@@ -7078,12 +7078,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -7093,12 +7093,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -7112,17 +7112,17 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P6" t="b">
@@ -7150,12 +7150,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -7165,12 +7165,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -7184,17 +7184,17 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P7" t="b">
@@ -7222,12 +7222,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Signals &amp; Systems</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -7256,12 +7256,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Signals &amp; Systems</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -7294,12 +7294,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Semiconductor Devices</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -7318,7 +7318,7 @@
         </is>
       </c>
       <c r="J9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -7328,12 +7328,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Semiconductor Devices</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -7366,27 +7366,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Analog Electronics</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -7400,12 +7400,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Analog Electronics</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -7438,12 +7438,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Signals &amp; Systems</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -7472,12 +7472,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Signals &amp; Systems</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -7510,12 +7510,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Semiconductor Devices</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -7530,7 +7530,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -7544,12 +7544,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Semiconductor Devices</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -7582,12 +7582,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Random Processes</t>
+          <t>Analog Electronics</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -7616,12 +7616,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Random Processes</t>
+          <t>Analog Electronics</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -7649,17 +7649,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -7669,12 +7669,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -7688,12 +7688,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7721,17 +7721,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -7765,12 +7765,12 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P15" t="b">
@@ -7793,17 +7793,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>Random Processes</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -7813,12 +7813,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -7832,12 +7832,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>Random Processes</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -7865,17 +7865,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -7885,16 +7885,16 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -7904,12 +7904,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -7918,7 +7918,7 @@
         </is>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -7942,12 +7942,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -7962,7 +7962,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -7976,12 +7976,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -8014,12 +8014,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2-1-0-0-3</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="J19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -8048,12 +8048,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2-1-0-0-3</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -8062,7 +8062,7 @@
         </is>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -8086,12 +8086,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -8101,7 +8101,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -8110,7 +8110,7 @@
         </is>
       </c>
       <c r="J20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -8120,12 +8120,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -8134,7 +8134,7 @@
         </is>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -8158,12 +8158,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -8178,7 +8178,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -8192,17 +8192,17 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P21" t="b">
@@ -8230,12 +8230,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -8264,12 +8264,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -8302,12 +8302,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -8341,7 +8341,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -8374,12 +8374,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -8389,16 +8389,16 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -8408,12 +8408,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -8422,7 +8422,7 @@
         </is>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -8441,32 +8441,32 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -8480,12 +8480,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -8513,17 +8513,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>2-1-0-0-3</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -8533,12 +8533,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -8552,12 +8552,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>2-1-0-0-3</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -8585,17 +8585,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -8624,12 +8624,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -8657,17 +8657,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -8696,12 +8696,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -8729,17 +8729,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -8768,12 +8768,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -8801,17 +8801,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -8840,12 +8840,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -8873,17 +8873,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -8898,7 +8898,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -8912,12 +8912,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -8945,32 +8945,36 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -8980,12 +8984,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -8994,7 +8998,7 @@
         </is>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -9018,25 +9022,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
@@ -9048,12 +9056,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -9086,12 +9094,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -9101,7 +9109,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -9110,7 +9118,7 @@
         </is>
       </c>
       <c r="J34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -9120,12 +9128,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -9134,7 +9142,7 @@
         </is>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -9153,17 +9161,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -9197,7 +9205,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -9225,32 +9233,32 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -9264,17 +9272,17 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P36" t="b">
@@ -9297,17 +9305,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -9317,16 +9325,16 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -9336,21 +9344,21 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -9369,32 +9377,32 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -9408,12 +9416,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -9441,17 +9449,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9466,7 +9474,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -9480,12 +9488,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9513,17 +9521,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -9538,7 +9546,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -9552,12 +9560,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9585,17 +9593,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -9610,7 +9618,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -9624,12 +9632,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9657,17 +9665,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -9677,7 +9685,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -9696,12 +9704,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -9729,30 +9737,34 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
@@ -9764,12 +9776,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -9797,30 +9809,34 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
@@ -9832,12 +9848,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -9865,17 +9881,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -9885,7 +9901,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -9894,7 +9910,7 @@
         </is>
       </c>
       <c r="J45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -9904,12 +9920,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -9918,7 +9934,7 @@
         </is>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -9937,7 +9953,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -9947,7 +9963,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -9976,12 +9992,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -10009,32 +10025,32 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -10048,17 +10064,17 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P47" t="b">
@@ -10081,17 +10097,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1/0</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -10120,17 +10136,17 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>1/0</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P48" t="b">
@@ -10153,17 +10169,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -10197,7 +10213,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -10225,17 +10241,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -10245,7 +10261,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -10254,7 +10270,7 @@
         </is>
       </c>
       <c r="J50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -10264,12 +10280,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -10278,7 +10294,7 @@
         </is>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -10297,32 +10313,32 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -10336,12 +10352,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -10369,30 +10385,34 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1/0</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
@@ -10404,12 +10424,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>1/0</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -10437,30 +10457,34 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1/0</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
@@ -10472,12 +10496,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>1/0</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -10505,17 +10529,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -10544,12 +10568,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -10577,17 +10601,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -10597,12 +10621,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -10610,22 +10634,18 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -10653,17 +10673,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -10673,12 +10693,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -10686,22 +10706,18 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -10729,17 +10745,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -10762,22 +10778,18 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -10805,17 +10817,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -10825,7 +10837,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -10834,26 +10846,22 @@
         </is>
       </c>
       <c r="J58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -10862,7 +10870,7 @@
         </is>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -10881,17 +10889,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -10914,22 +10922,18 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -10957,17 +10961,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10990,22 +10994,18 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -11033,17 +11033,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -11053,35 +11053,31 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -11090,7 +11086,7 @@
         </is>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -11109,32 +11105,32 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>1/0</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -11142,21 +11138,25 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P62" t="b">
         <v>0</v>
       </c>
@@ -11177,17 +11177,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -11197,12 +11197,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -11210,21 +11210,25 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>EC263</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr"/>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P63" t="b">
         <v>0</v>
       </c>
@@ -11245,17 +11249,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -11278,27 +11282,23 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P64" t="b">
@@ -11321,17 +11321,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -11346,7 +11346,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -11354,27 +11354,23 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P65" t="b">
@@ -11397,17 +11393,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>1/0</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -11417,12 +11413,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -11430,27 +11426,23 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>1/0</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P66" t="b">
@@ -11473,17 +11465,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>1/0</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -11493,7 +11485,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -11506,27 +11498,23 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>1/0</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P67" t="b">
@@ -11549,17 +11537,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -11574,7 +11562,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -11582,27 +11570,23 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P68" t="b">
@@ -11625,17 +11609,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -11645,7 +11629,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -11654,35 +11638,31 @@
         </is>
       </c>
       <c r="J69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -11701,30 +11681,34 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J70" t="b">
         <v>0</v>
       </c>
@@ -11740,17 +11724,17 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P70" t="b">
@@ -11773,17 +11757,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -11809,18 +11793,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr"/>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P71" t="b">
         <v>0</v>
       </c>
@@ -11841,32 +11833,32 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -11877,18 +11869,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr"/>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P72" t="b">
         <v>0</v>
       </c>
@@ -11909,7 +11909,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -11919,7 +11919,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -11934,7 +11934,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -11952,12 +11952,12 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -11995,7 +11995,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -12028,12 +12028,12 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -12061,7 +12061,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -12071,7 +12071,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -12104,12 +12104,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -12137,7 +12137,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -12147,22 +12147,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -12180,12 +12180,12 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -12213,17 +12213,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -12249,26 +12249,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
       <c r="P77" t="b">
         <v>0</v>
       </c>
@@ -12289,17 +12281,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -12309,7 +12301,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -12318,35 +12310,27 @@
         </is>
       </c>
       <c r="J78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Electronics Systems design-1</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -12365,7 +12349,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -12375,7 +12359,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -12385,7 +12369,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -12401,26 +12385,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
       <c r="P79" t="b">
         <v>0</v>
       </c>
@@ -12441,7 +12417,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -12451,7 +12427,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -12477,18 +12453,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr"/>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P80" t="b">
         <v>0</v>
       </c>
@@ -12509,17 +12493,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -12529,12 +12513,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -12545,18 +12529,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>EC261</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr"/>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P81" t="b">
         <v>0</v>
       </c>
@@ -12577,17 +12569,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -12597,12 +12589,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J82" t="b">
@@ -12613,18 +12605,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr"/>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P82" t="b">
         <v>0</v>
       </c>
@@ -12645,17 +12645,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -12665,12 +12665,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J83" t="b">
@@ -12681,18 +12681,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr"/>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P83" t="b">
         <v>0</v>
       </c>
@@ -12713,17 +12721,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -12749,18 +12757,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr"/>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P84" t="b">
         <v>0</v>
       </c>
@@ -12781,32 +12797,32 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J85" t="b">
@@ -12817,18 +12833,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P85" t="b">
         <v>0</v>
       </c>
@@ -12849,7 +12873,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -12859,22 +12883,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J86" t="b">
@@ -12885,18 +12909,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr"/>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P86" t="b">
         <v>0</v>
       </c>
@@ -12917,32 +12949,32 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J87" t="b">
@@ -12956,12 +12988,12 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
@@ -12985,36 +13017,36 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -13024,17 +13056,17 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -13053,17 +13085,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -13073,7 +13105,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -13092,16 +13124,1500 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>3</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J90" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>3</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J91" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>3</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J92" t="b">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>3</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J93" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>3</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J94" t="b">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>3</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J95" t="b">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>3</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J96" t="b">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>3</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J97" t="b">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>3</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J98" t="b">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>3</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J99" t="b">
+        <v>1</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>3</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J100" t="b">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>3</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J101" t="b">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>3</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J102" t="b">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>3</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J103" t="b">
+        <v>1</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>3</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J104" t="b">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>3</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J105" t="b">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>3</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J106" t="b">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>3</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J107" t="b">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>3</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J108" t="b">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>3</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J109" t="b">
+        <v>1</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>3</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J110" t="b">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13232,7 +14748,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C101, C202</t>
+          <t>C102, C204, C305, L403</t>
         </is>
       </c>
     </row>
@@ -13249,7 +14765,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C104, C203, C204</t>
+          <t>C101, C104, C304</t>
         </is>
       </c>
     </row>
@@ -13266,7 +14782,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C202, C204, C302</t>
+          <t>C102, C104, C202</t>
         </is>
       </c>
     </row>
@@ -13283,7 +14799,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C203, C205, C303</t>
+          <t>C104, C203, C302</t>
         </is>
       </c>
     </row>
@@ -13300,7 +14816,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C204, C302, C304</t>
+          <t>C102, C202, C204</t>
         </is>
       </c>
     </row>
@@ -13317,7 +14833,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C205, C303, C305</t>
+          <t>C203, C205</t>
         </is>
       </c>
     </row>
@@ -13334,7 +14850,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C001, C302, C304</t>
+          <t>C004</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_timetable.xlsx
@@ -1586,17 +1586,17 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C305]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C304]</t>
+          <t>MINOR: Cybersecurity [C303]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C203]</t>
+          <t>MINOR: Design [C205]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C205]</t>
+          <t>MINOR: DSAI [C304]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -1619,22 +1619,22 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>MA263 [L407]</t>
+          <t>MA263 [L107]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>MA263 [L206]</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>MA261 [C104]</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>EC263 [C002]</t>
+          <t>EC263 [L106]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -1652,17 +1652,17 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>EC262 [L106]</t>
+          <t>EC262 [C307]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>EC262 [L106]</t>
+          <t>EC262 [L207]</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>MA262 [L404]</t>
+          <t>MA262 [L206]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="F4" s="14" t="inlineStr">
         <is>
-          <t>CS307 [L406]</t>
+          <t>CS307 [C203]</t>
         </is>
       </c>
       <c r="G4" s="8" t="n"/>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>EC263 [C002]</t>
+          <t>EC263 [L106]</t>
         </is>
       </c>
       <c r="D6" s="16" t="inlineStr">
@@ -1733,12 +1733,12 @@
       </c>
       <c r="E6" s="10" t="inlineStr">
         <is>
-          <t>MA261 [C104]</t>
+          <t>MA261 [L408]</t>
         </is>
       </c>
       <c r="F6" s="12" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L206]</t>
+          <t>EC262 (Lab) [L105]</t>
         </is>
       </c>
       <c r="G6" s="8" t="n"/>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B7" s="10" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial) [C104]</t>
+          <t>MA261 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="C7" s="16" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="D7" s="14" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C305]</t>
+          <t>CS307 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="E7" s="8" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="F7" s="12" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L206]</t>
+          <t>EC262 (Lab) [L105]</t>
         </is>
       </c>
       <c r="G7" s="8" t="n"/>
@@ -1784,27 +1784,27 @@
       </c>
       <c r="B8" s="13" t="inlineStr">
         <is>
-          <t>MA262 [L407]</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>CS307 [L406]</t>
+          <t>CS307 [L402]</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>EC261 [C202]</t>
+          <t>EC261 [C002]</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>EC261 [C304]</t>
+          <t>EC261 [C302]</t>
         </is>
       </c>
       <c r="F8" s="11" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L105]</t>
+          <t>EC263 (Lab) [L107]</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -1817,12 +1817,12 @@
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial) [L407]</t>
+          <t>MA262 (Tutorial) [C102]</t>
         </is>
       </c>
       <c r="C9" s="17" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C101]</t>
+          <t>EC261 (Tutorial) [C302]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="F9" s="11" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L105]</t>
+          <t>EC263 (Lab) [L107]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -1850,12 +1850,12 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C304]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C305]</t>
+          <t>MINOR: DSAI [C203]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
@@ -1865,12 +1865,12 @@
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C203]</t>
+          <t>MINOR: Cybersecurity [C205]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C304]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -2288,12 +2288,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C202]</t>
+          <t>Tue 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2321,12 +2321,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C302]</t>
+          <t>Tue 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2354,12 +2354,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
+          <t>Mon 13:00-14:30 [C304], Wed 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C305]</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2387,12 +2387,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C102]</t>
+          <t>Tue 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2420,12 +2420,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C305], Wed 13:00-14:30 [C305]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C205]</t>
+          <t>Tue 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C304]</t>
+          <t>Tue 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2575,17 +2575,17 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C305]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C304]</t>
+          <t>MINOR: Cybersecurity [C303]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C203]</t>
+          <t>MINOR: Design [C205]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C205]</t>
+          <t>MINOR: DSAI [C304]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -2608,22 +2608,22 @@
       </c>
       <c r="B3" s="14" t="inlineStr">
         <is>
-          <t>CS307 [L407]</t>
+          <t>CS307 [L208]</t>
         </is>
       </c>
       <c r="C3" s="14" t="inlineStr">
         <is>
-          <t>CS307 [L107]</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
-          <t>MA263 [L207]</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="E3" s="10" t="inlineStr">
         <is>
-          <t>MA261 [C104]</t>
+          <t>MA261 [C308]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -2651,12 +2651,12 @@
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>MA261 [C307]</t>
+          <t>MA261 [L207]</t>
         </is>
       </c>
       <c r="E4" s="12" t="inlineStr">
         <is>
-          <t>EC262 [L106]</t>
+          <t>EC262 [C307]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="B6" s="17" t="inlineStr">
         <is>
-          <t>EC261 [C304]</t>
+          <t>EC261 [C002]</t>
         </is>
       </c>
       <c r="C6" s="36" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="D6" s="12" t="inlineStr">
         <is>
-          <t>EC262 [C003]</t>
+          <t>EC262 [C001]</t>
         </is>
       </c>
       <c r="E6" s="36" t="inlineStr">
@@ -2740,12 +2740,12 @@
       </c>
       <c r="B7" s="14" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C305]</t>
+          <t>CS307 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial) [C104]</t>
+          <t>MA261 (Tutorial) [C102]</t>
         </is>
       </c>
       <c r="D7" s="36" t="inlineStr">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="C8" s="17" t="inlineStr">
         <is>
-          <t>EC261 [L407]</t>
+          <t>EC261 [L403]</t>
         </is>
       </c>
       <c r="D8" s="37" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="B9" s="17" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C302]</t>
+          <t>EC261 (Tutorial) [C204]</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -2839,12 +2839,12 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C304]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C305]</t>
+          <t>MINOR: DSAI [C203]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
@@ -2854,12 +2854,12 @@
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C203]</t>
+          <t>MINOR: Cybersecurity [C205]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C304]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -3277,12 +3277,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C202]</t>
+          <t>Tue 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3310,12 +3310,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C302]</t>
+          <t>Tue 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3343,12 +3343,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
+          <t>Mon 13:00-14:30 [C304], Wed 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C305]</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3376,12 +3376,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C102]</t>
+          <t>Tue 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3409,12 +3409,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C305], Wed 13:00-14:30 [C305]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C205]</t>
+          <t>Tue 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3442,12 +3442,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C304]</t>
+          <t>Tue 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3564,17 +3564,17 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C305]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C304]</t>
+          <t>MINOR: Cybersecurity [C303]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C203]</t>
+          <t>MINOR: Design [C205]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C205]</t>
+          <t>MINOR: DSAI [C304]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -3597,12 +3597,12 @@
       </c>
       <c r="B3" s="14" t="inlineStr">
         <is>
-          <t>CS307 [L406]</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="C3" s="14" t="inlineStr">
         <is>
-          <t>CS307 [L207]</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="D3" s="8" t="inlineStr">
@@ -3630,17 +3630,17 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>EC263 [L107]</t>
+          <t>EC263 [L106]</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>EC263 [C004]</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="D4" s="17" t="inlineStr">
         <is>
-          <t>EC261 [L403]</t>
+          <t>EC261 [L208]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>MA262 [L404]</t>
+          <t>MA262 [C003]</t>
         </is>
       </c>
       <c r="E6" s="36" t="inlineStr">
@@ -3729,12 +3729,12 @@
       </c>
       <c r="B7" s="14" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C302]</t>
+          <t>CS307 (Tutorial) [C102]</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial) [L407]</t>
+          <t>MA262 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="D7" s="36" t="inlineStr">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>MA262 [L407]</t>
+          <t>MA262 [L405]</t>
         </is>
       </c>
       <c r="D8" s="37" t="inlineStr">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L105]</t>
+          <t>EC263 (Lab) [C307]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="B9" s="17" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C204]</t>
+          <t>EC261 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="E9" s="11" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L105]</t>
+          <t>EC263 (Lab) [C307]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -3828,12 +3828,12 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C304]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C305]</t>
+          <t>MINOR: DSAI [C203]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C203]</t>
+          <t>MINOR: Cybersecurity [C205]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C304]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -4266,12 +4266,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C202]</t>
+          <t>Tue 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4299,12 +4299,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C302]</t>
+          <t>Tue 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -4332,12 +4332,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
+          <t>Mon 13:00-14:30 [C304], Wed 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C305]</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4365,12 +4365,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C102]</t>
+          <t>Tue 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4398,12 +4398,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C305], Wed 13:00-14:30 [C305]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C205]</t>
+          <t>Tue 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4431,12 +4431,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C304]</t>
+          <t>Tue 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4543,17 +4543,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C305]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C304]</t>
+          <t>MINOR: Cybersecurity [C303]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C203]</t>
+          <t>MINOR: Design [C205]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C205]</t>
+          <t>MINOR: DSAI [C304]</t>
         </is>
       </c>
     </row>
@@ -4575,12 +4575,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS307 [L407]</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS307 [L407]</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4607,17 +4607,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC263 [L407]</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EC263 [L407]</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC261 [L403]</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EC261 [L408]</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MA262 [C101]</t>
+          <t>MA262 [L405]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -4703,12 +4703,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [L407]</t>
+          <t>CS307 (Tutorial) [L406]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial) [C101]</t>
+          <t>MA262 (Tutorial) [L208]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MA262 [C101]</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L105]</t>
+          <t>EC263 (Lab) [C307]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [L404]</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [C101]</t>
+          <t>EC263 (Lab) [C303]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -4799,12 +4799,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C304]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C305]</t>
+          <t>MINOR: DSAI [C203]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -4814,12 +4814,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C203]</t>
+          <t>MINOR: Cybersecurity [C205]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C304]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
     </row>
@@ -4879,27 +4879,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [L403]</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [L407]</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [L403]</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [L407]</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [L408]</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
     </row>
@@ -4911,27 +4911,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Machine Learning [C004]</t>
+          <t>Machine Learning [L408]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C004]</t>
+          <t>3-0-2-0-4 [L408]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C004]</t>
+          <t>Full Sem [L408]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C004]</t>
+          <t>3/3 [L403]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1/0 [C004]</t>
+          <t>1/0 [L403]</t>
         </is>
       </c>
     </row>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2-1-0-0-3 [C102]</t>
+          <t>2-1-0-0-3 [C104]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4958,12 +4958,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2/2 [C305]</t>
+          <t>2/2 [C204]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1/1 [C104]</t>
+          <t>1/1 [C303]</t>
         </is>
       </c>
     </row>
@@ -4980,22 +4980,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3-0-2-0-2 [C104]</t>
+          <t>3-0-2-0-2 [C102]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C102]</t>
+          <t>Pre-Mid Only [C304]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3/3 [C204]</t>
+          <t>3/3 [C102]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0/0 [C104]</t>
+          <t>0/0 [C102]</t>
         </is>
       </c>
     </row>
@@ -5007,12 +5007,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Analog Electronics [C204]</t>
+          <t>Analog Electronics [C303]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3-0-2-0-2 [C303]</t>
+          <t>3-0-2-0-2 [C205]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -5022,12 +5022,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3/3 [C303]</t>
+          <t>3/3 [C203]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0/0 [C202]</t>
+          <t>0/0 [C204]</t>
         </is>
       </c>
     </row>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L407]</t>
+          <t>2-0-0-0-2 [L404]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -5054,12 +5054,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2/2 [L407]</t>
+          <t>2/2 [L404]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1/0 [L408]</t>
+          <t>1/0 [L403]</t>
         </is>
       </c>
     </row>
@@ -5071,22 +5071,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Multivariable Calculus [L403]</t>
+          <t>Multivariable Calculus [L405]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L404]</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Post-Mid Only [L406]</t>
+          <t>Post-Mid Only [L403]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2/2 [L403]</t>
+          <t>2/2 [L402]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Random Processes [C104]</t>
+          <t>Random Processes [C304]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C202]</t>
+          <t>2-0-0-0-2 [C102]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -5118,12 +5118,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2/2 [C102]</t>
+          <t>2/2 [C202]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0/0 [C101]</t>
+          <t>0/0 [C104]</t>
         </is>
       </c>
     </row>
@@ -5159,27 +5159,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Course [L406]</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Course Code [L403]</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [L407]</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [L406]</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [L404]</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
     </row>
@@ -5191,27 +5191,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [L406]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EC251 [L403]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L407]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [L408]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L404]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5223,27 +5223,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [L406]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EC251 [L403]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L407]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [L408]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L404]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5255,27 +5255,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [L406]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EC251 [L403]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L407]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [L408]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L404]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5287,27 +5287,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [L406]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EC251 [L403]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L407]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [L408]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L404]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5319,27 +5319,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [L406]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EC251 [L403]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L407]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [L408]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L404]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5351,27 +5351,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [L406]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>EC251 [L403]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L407]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [L408]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L404]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5383,27 +5383,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [L406]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EC251 [L403]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L407]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [L408]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L404]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5583,10 +5583,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5617,10 +5617,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5651,10 +5651,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="E7" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5753,10 +5753,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -5889,10 +5889,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>16.5</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5957,10 +5957,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5991,10 +5991,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -6093,10 +6093,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -6229,10 +6229,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6297,10 +6297,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="E26" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6357,10 +6357,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -6447,10 +6447,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -6481,10 +6481,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>21</v>
+        <v>7.5</v>
       </c>
       <c r="E32" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -6515,10 +6515,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -6549,10 +6549,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -6583,10 +6583,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -6617,10 +6617,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -6651,10 +6651,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -6824,7 +6824,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -6862,12 +6862,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="J3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -6896,21 +6896,21 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -6934,12 +6934,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -6949,16 +6949,16 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -6968,12 +6968,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -7006,12 +7006,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -7045,7 +7045,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -7078,12 +7078,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>Signals &amp; Systems</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -7093,12 +7093,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -7112,17 +7112,17 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>Signals &amp; Systems</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P6" t="b">
@@ -7150,12 +7150,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>Semiconductor Devices</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -7165,12 +7165,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -7184,17 +7184,17 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>Semiconductor Devices</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P7" t="b">
@@ -7222,12 +7222,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>Analog Electronics</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -7256,12 +7256,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>Analog Electronics</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -7294,12 +7294,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -7318,7 +7318,7 @@
         </is>
       </c>
       <c r="J9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -7328,12 +7328,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -7366,27 +7366,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -7400,12 +7400,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -7438,12 +7438,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Signals &amp; Systems</t>
+          <t>Random Processes</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -7472,12 +7472,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Signals &amp; Systems</t>
+          <t>Random Processes</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -7505,17 +7505,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Semiconductor Devices</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -7530,7 +7530,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -7544,12 +7544,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Semiconductor Devices</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -7577,32 +7577,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Analog Electronics</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -7616,17 +7616,17 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Analog Electronics</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P13" t="b">
@@ -7649,17 +7649,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -7688,12 +7688,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7721,17 +7721,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -7760,12 +7760,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -7793,17 +7793,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Random Processes</t>
+          <t>2-1-0-0-3</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -7837,7 +7837,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Random Processes</t>
+          <t>2-1-0-0-3</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -7865,17 +7865,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -7885,16 +7885,16 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -7904,12 +7904,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -7918,7 +7918,7 @@
         </is>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -7942,12 +7942,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -7976,12 +7976,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -8014,12 +8014,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="J19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -8048,12 +8048,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -8062,7 +8062,7 @@
         </is>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -8086,12 +8086,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -8110,7 +8110,7 @@
         </is>
       </c>
       <c r="J20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -8120,12 +8120,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -8134,7 +8134,7 @@
         </is>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -8158,12 +8158,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -8192,17 +8192,17 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P21" t="b">
@@ -8225,17 +8225,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -8264,12 +8264,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -8297,17 +8297,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -8317,7 +8317,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -8336,12 +8336,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -8369,17 +8369,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -8389,7 +8389,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -8398,7 +8398,7 @@
         </is>
       </c>
       <c r="J24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -8408,12 +8408,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -8422,7 +8422,7 @@
         </is>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -8441,7 +8441,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -8451,22 +8451,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -8480,12 +8480,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -8523,7 +8523,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2-1-0-0-3</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -8538,7 +8538,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -8552,12 +8552,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2-1-0-0-3</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -8595,7 +8595,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -8624,12 +8624,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -8667,7 +8667,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -8696,12 +8696,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -8729,7 +8729,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -8739,7 +8739,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -8768,12 +8768,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -8811,7 +8811,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -8840,12 +8840,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -8873,7 +8873,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -8883,7 +8883,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -8917,7 +8917,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -8945,17 +8945,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -8965,16 +8965,16 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -8984,12 +8984,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -8998,7 +8998,7 @@
         </is>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -9017,34 +9017,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="b">
         <v>0</v>
       </c>
@@ -9056,17 +9052,17 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C307</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P33" t="b">
@@ -9089,17 +9085,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -9109,7 +9105,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -9118,7 +9114,7 @@
         </is>
       </c>
       <c r="J34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -9128,21 +9124,21 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -9161,17 +9157,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -9186,7 +9182,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -9200,12 +9196,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -9233,17 +9229,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -9253,7 +9249,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -9272,12 +9268,12 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -9305,17 +9301,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -9325,7 +9321,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -9334,7 +9330,7 @@
         </is>
       </c>
       <c r="J37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -9344,12 +9340,12 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -9358,7 +9354,7 @@
         </is>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -9377,32 +9373,32 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -9416,12 +9412,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -9449,17 +9445,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9488,12 +9484,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9521,17 +9517,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -9541,12 +9537,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -9560,12 +9556,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9593,17 +9589,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -9613,12 +9609,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -9632,12 +9628,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9665,17 +9661,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -9685,12 +9681,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -9704,12 +9700,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -9737,17 +9733,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -9757,7 +9753,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -9776,12 +9772,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -9809,17 +9805,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -9853,7 +9849,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -9881,17 +9877,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>1/0</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -9910,7 +9906,7 @@
         </is>
       </c>
       <c r="J45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -9920,12 +9916,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>1/0</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -9934,7 +9930,7 @@
         </is>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -9953,17 +9949,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -9978,7 +9974,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -9992,12 +9988,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -10025,32 +10021,32 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -10064,17 +10060,17 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P47" t="b">
@@ -10097,17 +10093,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -10122,7 +10118,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -10136,17 +10132,17 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P48" t="b">
@@ -10169,17 +10165,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>1/0</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -10189,7 +10185,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -10208,12 +10204,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>1/0</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -10241,17 +10237,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>1/0</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -10270,7 +10266,7 @@
         </is>
       </c>
       <c r="J50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -10280,12 +10276,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>1/0</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -10294,7 +10290,7 @@
         </is>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -10313,32 +10309,32 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -10352,12 +10348,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -10385,17 +10381,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -10405,7 +10401,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -10418,25 +10414,21 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2/2</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="b">
         <v>0</v>
       </c>
@@ -10457,32 +10449,32 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -10490,25 +10482,21 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>3/3</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="b">
         <v>0</v>
       </c>
@@ -10529,17 +10517,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -10562,18 +10550,22 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -10601,17 +10593,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -10621,7 +10613,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -10634,18 +10626,22 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -10673,17 +10669,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -10693,12 +10689,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -10706,18 +10702,22 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -10745,17 +10745,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -10770,7 +10770,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -10778,18 +10778,22 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -10817,17 +10821,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -10837,31 +10841,35 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -10870,7 +10878,7 @@
         </is>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -10889,17 +10897,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -10922,18 +10930,22 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -10961,32 +10973,32 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -10994,18 +11006,22 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -11033,17 +11049,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -11053,40 +11069,36 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -11105,60 +11117,52 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1/0</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C308</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>1/0</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -11177,17 +11181,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -11197,12 +11201,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -11210,25 +11214,21 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>1/1</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="b">
         <v>0</v>
       </c>
@@ -11249,17 +11249,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -11269,12 +11269,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -11282,25 +11282,21 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="b">
         <v>0</v>
       </c>
@@ -11321,60 +11317,56 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Electronics Systems design-1</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -11393,17 +11385,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1/0</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -11413,12 +11405,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -11426,25 +11418,21 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>1/0</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
       <c r="P66" t="b">
         <v>0</v>
       </c>
@@ -11465,17 +11453,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1/0</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -11485,7 +11473,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -11498,25 +11486,21 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>1/0</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
       <c r="P67" t="b">
         <v>0</v>
       </c>
@@ -11537,32 +11521,32 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -11570,25 +11554,21 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="b">
         <v>0</v>
       </c>
@@ -11609,17 +11589,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -11629,40 +11609,44 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -11681,17 +11665,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -11706,7 +11690,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -11724,17 +11708,17 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P70" t="b">
@@ -11757,17 +11741,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -11782,7 +11766,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -11800,17 +11784,17 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P71" t="b">
@@ -11833,17 +11817,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -11876,17 +11860,17 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P72" t="b">
@@ -11909,17 +11893,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -11934,7 +11918,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -11952,17 +11936,17 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P73" t="b">
@@ -11985,17 +11969,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -12028,17 +12012,17 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P74" t="b">
@@ -12061,32 +12045,32 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J75" t="b">
@@ -12104,17 +12088,17 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P75" t="b">
@@ -12137,32 +12121,32 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -12173,26 +12157,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
       <c r="P76" t="b">
         <v>0</v>
       </c>
@@ -12213,34 +12189,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="b">
         <v>0</v>
       </c>
@@ -12252,12 +12224,12 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -12281,17 +12253,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -12310,7 +12282,7 @@
         </is>
       </c>
       <c r="J78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -12320,17 +12292,17 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -12354,12 +12326,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -12388,12 +12360,12 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -12422,7 +12394,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -12432,35 +12404,31 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -12468,13 +12436,9 @@
           <t>EC251</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+      <c r="O80" t="inlineStr"/>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -12493,34 +12457,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="b">
         <v>0</v>
       </c>
@@ -12529,26 +12489,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
       <c r="P81" t="b">
         <v>0</v>
       </c>
@@ -12569,32 +12521,32 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J82" t="b">
@@ -12605,26 +12557,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
       <c r="P82" t="b">
         <v>0</v>
       </c>
@@ -12645,17 +12589,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -12688,17 +12632,17 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P83" t="b">
@@ -12721,17 +12665,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -12764,17 +12708,17 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P84" t="b">
@@ -12797,17 +12741,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -12822,7 +12766,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J85" t="b">
@@ -12840,17 +12784,17 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P85" t="b">
@@ -12873,32 +12817,32 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J86" t="b">
@@ -12916,17 +12860,17 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P86" t="b">
@@ -12949,17 +12893,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -12985,18 +12929,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr"/>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P87" t="b">
         <v>0</v>
       </c>
@@ -13017,17 +12969,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -13037,7 +12989,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -13046,27 +12998,35 @@
         </is>
       </c>
       <c r="J88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -13090,27 +13050,27 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J89" t="b">
@@ -13121,18 +13081,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>MA263</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr"/>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P89" t="b">
         <v>0</v>
       </c>
@@ -13158,12 +13126,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -13178,7 +13146,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J90" t="b">
@@ -13189,26 +13157,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr"/>
       <c r="P90" t="b">
         <v>0</v>
       </c>
@@ -13234,12 +13194,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -13249,7 +13209,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -13265,26 +13225,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr"/>
       <c r="P91" t="b">
         <v>0</v>
       </c>
@@ -13310,12 +13262,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -13325,12 +13277,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J92" t="b">
@@ -13341,26 +13293,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr"/>
       <c r="P92" t="b">
         <v>0</v>
       </c>
@@ -13386,12 +13330,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -13401,12 +13345,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J93" t="b">
@@ -13417,26 +13361,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
       <c r="P93" t="b">
         <v>0</v>
       </c>
@@ -13462,59 +13398,51 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr"/>
       <c r="P94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -13533,64 +13461,56 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr"/>
       <c r="P95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -13609,7 +13529,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -13619,24 +13539,20 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="b">
         <v>0</v>
       </c>
@@ -13645,26 +13561,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr"/>
       <c r="P96" t="b">
         <v>0</v>
       </c>
@@ -13685,32 +13593,32 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J97" t="b">
@@ -13724,12 +13632,12 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
@@ -13753,32 +13661,32 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J98" t="b">
@@ -13792,12 +13700,12 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="O98" t="inlineStr"/>
@@ -13821,17 +13729,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -13850,7 +13758,7 @@
         </is>
       </c>
       <c r="J99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -13860,17 +13768,17 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -13894,31 +13802,31 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -13928,17 +13836,17 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -13957,17 +13865,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -14001,7 +13909,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="O101" t="inlineStr"/>
@@ -14025,32 +13933,32 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J102" t="b">
@@ -14064,12 +13972,12 @@
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="O102" t="inlineStr"/>
@@ -14093,36 +14001,36 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -14132,17 +14040,17 @@
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -14166,27 +14074,27 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J104" t="b">
@@ -14200,12 +14108,12 @@
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="O104" t="inlineStr"/>
@@ -14234,27 +14142,27 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J105" t="b">
@@ -14268,12 +14176,12 @@
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="O105" t="inlineStr"/>
@@ -14302,27 +14210,27 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J106" t="b">
@@ -14336,12 +14244,12 @@
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="O106" t="inlineStr"/>
@@ -14370,27 +14278,27 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J107" t="b">
@@ -14404,12 +14312,12 @@
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O107" t="inlineStr"/>
@@ -14438,17 +14346,17 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -14458,11 +14366,11 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -14472,17 +14380,17 @@
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -14501,17 +14409,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -14530,7 +14438,7 @@
         </is>
       </c>
       <c r="J109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -14540,17 +14448,17 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -14608,7 +14516,7 @@
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -14748,7 +14656,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C102, C204, C305, L403</t>
+          <t>C101, C102, C304, L106</t>
         </is>
       </c>
     </row>
@@ -14765,7 +14673,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C101, C104, C304</t>
+          <t>C102, C203, C305</t>
         </is>
       </c>
     </row>
@@ -14782,7 +14690,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C102, C104, C202</t>
+          <t>C102, C202, C305</t>
         </is>
       </c>
     </row>
@@ -14799,7 +14707,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C104, C203, C302</t>
+          <t>C101, C203, C305</t>
         </is>
       </c>
     </row>
@@ -14816,7 +14724,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C102, C202, C204</t>
+          <t>C104, C202, C203</t>
         </is>
       </c>
     </row>
@@ -14833,7 +14741,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C203, C205</t>
+          <t>C204, C205</t>
         </is>
       </c>
     </row>
